--- a/QuantLibXL/Data2/XLS/HKD/HKD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD/HKD_MxContributor.xlsx
@@ -1223,25 +1223,25 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.4423504810000001</v>
+        <v>1.4000000000000001</v>
         <stp/>
         <stp>_x000C_HKD6M18X24F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG22" s="7"/>
       </tp>
       <tp>
-        <v>1.0483362119999999</v>
+        <v>1.0605667670000001</v>
         <stp/>
         <stp>_x000C_HKD6M12X18F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG21" s="7"/>
       </tp>
       <tp>
-        <v>1.4423504810000001</v>
+        <v>1.4000000000000001</v>
         <stp/>
         <stp>_x000C_HKD6M18X24F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH22" s="7"/>
       </tp>
       <tp>
-        <v>1.0483362119999999</v>
+        <v>1.0605667670000001</v>
         <stp/>
         <stp>_x000C_HKD6M12X18F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH21" s="7"/>
@@ -1249,137 +1249,135 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.47223775600000001</v>
+        <v>0.52089011200000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKD6M2X8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG16" s="7"/>
       </tp>
       <tp>
-        <v>0.48023117599999998</v>
+        <v>0.55280631300000005</v>
         <stp/>
         <stp xml:space="preserve">
 HKD6M3X9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG17" s="7"/>
       </tp>
       <tp>
-        <v>0.48023117599999998</v>
+        <v>0.55280631300000005</v>
         <stp/>
         <stp xml:space="preserve">
 HKD6M3X9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH17" s="7"/>
       </tp>
       <tp>
-        <v>1.21</v>
+        <v>1.1200000000000001</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL23" s="7"/>
       </tp>
       <tp>
-        <v>0.8</v>
+        <v>0.82000000000000006</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL22" s="7"/>
       </tp>
       <tp>
-        <v>2.02</v>
+        <v>1.79</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL26" s="7"/>
       </tp>
       <tp>
-        <v>1.72</v>
+        <v>1.53</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL25" s="7"/>
       </tp>
       <tp>
-        <v>1.51</v>
+        <v>1.36</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL24" s="7"/>
       </tp>
       <tp>
-        <v>0.47223775600000001</v>
+        <v>0.52089011200000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKD6M2X8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH16" s="7"/>
       </tp>
       <tp>
-        <v>0.83714</v>
+        <v>0.84399999999999997</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK20" s="7"/>
       </tp>
       <tp>
-        <v>0.43125056000000001</v>
+        <v>0.53080117000000004</v>
         <stp/>
         <stp xml:space="preserve">
 HKD3M6X9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE17" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.43125056000000001</v>
+        <v>0.53080117000000004</v>
         <stp/>
         <stp xml:space="preserve">
 HKD3M6X9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF17" s="7"/>
       </tp>
       <tp>
-        <v>0.83714</v>
+        <v>0.84399999999999997</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL20" s="7"/>
       </tp>
       <tp>
-        <v>0.366750833</v>
+        <v>0.43545417200000003</v>
         <stp/>
         <stp xml:space="preserve">
 HKD3M3X6F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF14" s="7"/>
       </tp>
       <tp>
-        <v>0.36777256200000003</v>
+        <v>0.39772522600000004</v>
         <stp/>
         <stp xml:space="preserve">
 HKD3M1X4F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE12" s="7"/>
       </tp>
       <tp>
-        <v>0.10285999999999999</v>
+        <v>9.6290000000000014E-2</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD1WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL7" s="7"/>
       </tp>
       <tp>
-        <v>0.36777256200000003</v>
+        <v>0.39772522600000004</v>
         <stp/>
         <stp xml:space="preserve">
 HKD3M1X4F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF12" s="7"/>
       </tp>
       <tp>
-        <v>0.10285999999999999</v>
+        <v>9.6290000000000014E-2</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD1WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK7" s="7"/>
       </tp>
       <tp>
-        <v>0.366750833</v>
+        <v>0.43545417200000003</v>
         <stp/>
         <stp xml:space="preserve">
 HKD3M3X6F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE14" s="7"/>
       </tp>
       <tp>
-        <v>0.45649460400000003</v>
+        <v>0.50849396400000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKD6M1X7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1484,44 +1482,42 @@
         <tr r="AJ17" s="7"/>
       </tp>
       <tp>
-        <v>0.45649460400000003</v>
+        <v>0.50849396400000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKD6M1X7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG15" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.22286</v>
+        <v>0.23686000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK9" s="7"/>
       </tp>
       <tp>
-        <v>0.37364000000000003</v>
+        <v>0.38600000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK11" s="7"/>
       </tp>
       <tp>
-        <v>0.31070999999999999</v>
+        <v>0.30586000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK10" s="7"/>
       </tp>
       <tp>
-        <v>0.53495000000000004</v>
+        <v>0.54286000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK14" s="7"/>
       </tp>
       <tp>
-        <v>4.7899999999999998E-2</v>
+        <v>4.4070000000000005E-2</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTDOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1530,35 +1526,35 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>4.7899999999999998E-2</v>
+        <v>4.4070000000000005E-2</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTDOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK6" s="7"/>
       </tp>
       <tp>
-        <v>0.22286</v>
+        <v>0.23686000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL9" s="7"/>
       </tp>
       <tp>
-        <v>0.37364000000000003</v>
+        <v>0.38600000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL11" s="7"/>
       </tp>
       <tp>
-        <v>0.31070999999999999</v>
+        <v>0.30586000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL10" s="7"/>
       </tp>
       <tp>
-        <v>0.53495000000000004</v>
+        <v>0.54286000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1567,31 +1563,31 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.8</v>
+        <v>0.82000000000000006</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK22" s="7"/>
       </tp>
       <tp>
-        <v>1.21</v>
+        <v>1.1200000000000001</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK23" s="7"/>
       </tp>
       <tp>
-        <v>1.51</v>
+        <v>1.36</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK24" s="7"/>
       </tp>
       <tp>
-        <v>1.72</v>
+        <v>1.53</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK25" s="7"/>
       </tp>
       <tp>
-        <v>2.02</v>
+        <v>1.79</v>
         <stp/>
         <stp xml:space="preserve">	HKDSTD7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK26" s="7"/>
@@ -1685,109 +1681,109 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.47598553100000002</v>
+        <v>0.52320118100000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD28" s="7"/>
       </tp>
       <tp>
-        <v>0.472755539</v>
+        <v>0.52004858399999998</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD27" s="7"/>
       </tp>
       <tp>
-        <v>0.47921625899999998</v>
+        <v>0.52635674900000007</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD29" s="7"/>
       </tp>
       <tp>
-        <v>0.709649855</v>
+        <v>0.61876717700000006</v>
         <stp/>
         <stp xml:space="preserve">	HKD6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG6" s="7"/>
       </tp>
       <tp>
-        <v>0.70898881999999996</v>
+        <v>0.61863562900000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M1WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG7" s="7"/>
       </tp>
       <tp>
-        <v>0.70317613899999998</v>
+        <v>0.61623952999999998</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG9" s="7"/>
       </tp>
       <tp>
-        <v>0.70792446799999997</v>
+        <v>0.61829190700000003</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG8" s="7"/>
       </tp>
       <tp>
-        <v>0.68591491599999999</v>
+        <v>0.610230206</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG10" s="7"/>
       </tp>
       <tp>
-        <v>0.66086918500000003</v>
+        <v>0.59942353700000006</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG11" s="7"/>
       </tp>
       <tp>
-        <v>0.62419651200000004</v>
+        <v>0.58368388999999998</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG12" s="7"/>
       </tp>
       <tp>
-        <v>0.58227219399999997</v>
+        <v>0.56539224700000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG13" s="7"/>
       </tp>
       <tp>
-        <v>0.526135511</v>
+        <v>0.541600533</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG14" s="7"/>
       </tp>
       <tp>
-        <v>0.8</v>
+        <v>0.82000000000000006</v>
         <stp/>
         <stp>_x0008_HKD3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF22" s="7"/>
       </tp>
       <tp>
-        <v>1.21</v>
+        <v>1.1200000000000001</v>
         <stp/>
         <stp>_x0008_HKD3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF23" s="7"/>
       </tp>
       <tp>
-        <v>0.44</v>
+        <v>0.5</v>
         <stp/>
         <stp>_x0008_HKD3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF20" s="7"/>
       </tp>
       <tp>
-        <v>2.02</v>
+        <v>1.79</v>
         <stp/>
         <stp>_x0008_HKD3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF26" s="7"/>
       </tp>
       <tp>
-        <v>1.51</v>
+        <v>1.36</v>
         <stp/>
         <stp>_x0008_HKD3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF24" s="7"/>
       </tp>
       <tp>
-        <v>1.72</v>
+        <v>1.53</v>
         <stp/>
         <stp>_x0008_HKD3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF25" s="7"/>
@@ -1795,31 +1791,31 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4</v>
+        <v>2.09</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF28" s="7"/>
       </tp>
       <tp>
-        <v>2.29</v>
+        <v>2.0100000000000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF27" s="7"/>
       </tp>
       <tp>
-        <v>2.5</v>
+        <v>2.17</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF29" s="7"/>
       </tp>
       <tp>
-        <v>0.395449728</v>
+        <v>0.44462541300000002</v>
         <stp/>
         <stp>_x0008_HKD1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD22" s="7"/>
       </tp>
       <tp>
-        <v>0.42727208700000002</v>
+        <v>0.47593427400000005</v>
         <stp/>
         <stp>_x0008_HKD1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD23" s="7"/>
@@ -1831,37 +1827,37 @@
         <tr r="AD11" s="7"/>
       </tp>
       <tp>
-        <v>0.3</v>
+        <v>0.35000000000000003</v>
         <stp/>
         <stp>_x0008_HKD1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD20" s="7"/>
       </tp>
       <tp>
-        <v>0.23</v>
+        <v>0.26</v>
         <stp/>
         <stp>_x0008_HKD1M6M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD14" s="7"/>
       </tp>
       <tp>
-        <v>0.46435295700000001</v>
+        <v>0.51193376600000007</v>
         <stp/>
         <stp>_x0008_HKD1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD26" s="7"/>
       </tp>
       <tp>
-        <v>0.44341164100000002</v>
+        <v>0.49164190800000002</v>
         <stp/>
         <stp>_x0008_HKD1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD24" s="7"/>
       </tp>
       <tp>
-        <v>0.45314568599999999</v>
+        <v>0.50112642400000007</v>
         <stp/>
         <stp>_x0008_HKD1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD25" s="7"/>
       </tp>
       <tp>
-        <v>0.24</v>
+        <v>0.30000000000000004</v>
         <stp/>
         <stp>_x0008_HKD1M9M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD17" s="7"/>
@@ -1869,55 +1865,55 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.37797774699999998</v>
+        <v>0.37812811200000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE6" s="7"/>
       </tp>
       <tp>
-        <v>0.37791912700000002</v>
+        <v>0.37820525999999999</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M1WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE7" s="7"/>
       </tp>
       <tp>
-        <v>0.37738937299999997</v>
+        <v>0.37927193600000003</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE9" s="7"/>
       </tp>
       <tp>
-        <v>0.37782547500000002</v>
+        <v>0.37837157700000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE8" s="7"/>
       </tp>
       <tp>
-        <v>0.373389105</v>
+        <v>0.38625363900000004</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE11" s="7"/>
       </tp>
       <tp>
-        <v>1.090377151</v>
+        <v>1.086754282</v>
         <stp/>
         <stp>_x0008_HKD6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH23" s="7"/>
       </tp>
       <tp>
-        <v>1.3129819389999999</v>
+        <v>1.288053474</v>
         <stp/>
         <stp>_x0008_HKD6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH26" s="7"/>
       </tp>
       <tp>
-        <v>1.1881804970000001</v>
+        <v>1.174641171</v>
         <stp/>
         <stp>_x0008_HKD6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH24" s="7"/>
       </tp>
       <tp>
-        <v>1.2463194559999999</v>
+        <v>1.227668607</v>
         <stp/>
         <stp>_x0008_HKD6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH25" s="7"/>
@@ -1925,49 +1921,51 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.382388422</v>
+        <v>1.3509305760000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH28" s="7"/>
       </tp>
       <tp>
-        <v>1.363016534</v>
+        <v>1.3333500140000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH27" s="7"/>
       </tp>
       <tp>
-        <v>1.4018193889999999</v>
+        <v>1.368508869</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH29" s="7"/>
       </tp>
       <tp>
-        <v>0.22830397699999999</v>
+        <v>0.24803053100000003</v>
         <stp/>
         <stp xml:space="preserve">	HKD1MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>0.227560813</v>
+        <v>0.24719603400000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M1WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>0.22286</v>
+        <v>0.23686000000000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC9" s="7"/>
       </tp>
       <tp>
-        <v>0.22636061699999999</v>
+        <v>0.24524284400000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC8" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.5</v>
+        <v>2.17</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1976,33 +1974,31 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.090377151</v>
+        <v>1.086754282</v>
         <stp/>
         <stp>_x0008_HKD6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG23" s="7"/>
       </tp>
       <tp>
-        <v>1.2463194559999999</v>
+        <v>1.227668607</v>
         <stp/>
         <stp>_x0008_HKD6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG25" s="7"/>
       </tp>
       <tp>
-        <v>1.1881804970000001</v>
+        <v>1.174641171</v>
         <stp/>
         <stp>_x0008_HKD6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG24" s="7"/>
       </tp>
       <tp>
-        <v>1.3129819389999999</v>
+        <v>1.288053474</v>
         <stp/>
         <stp>_x0008_HKD6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG26" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.5</v>
+        <v>2.17</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2011,27 +2007,27 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4</v>
+        <v>2.09</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL28" s="7"/>
       </tp>
       <tp>
-        <v>0.61</v>
+        <v>0.65</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE21" s="7"/>
       </tp>
       <tp>
-        <v>2.29</v>
+        <v>2.0100000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK27" s="7"/>
       </tp>
       <tp>
-        <v>0.3</v>
+        <v>0.35000000000000003</v>
         <stp/>
         <stp>_x0008_HKD1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC20" s="7"/>
@@ -2043,273 +2039,263 @@
         <tr r="AC11" s="7"/>
       </tp>
       <tp>
-        <v>0.42727208700000002</v>
+        <v>0.47593427400000005</v>
         <stp/>
         <stp>_x0008_HKD1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC23" s="7"/>
       </tp>
       <tp>
-        <v>0.395449728</v>
+        <v>0.44462541300000002</v>
         <stp/>
         <stp>_x0008_HKD1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC22" s="7"/>
       </tp>
       <tp>
-        <v>0.45314568599999999</v>
+        <v>0.50112642400000007</v>
         <stp/>
         <stp>_x0008_HKD1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC25" s="7"/>
       </tp>
       <tp>
-        <v>0.44341164100000002</v>
+        <v>0.49164190800000002</v>
         <stp/>
         <stp>_x0008_HKD1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC24" s="7"/>
       </tp>
       <tp>
-        <v>0.46435295700000001</v>
+        <v>0.51193376600000007</v>
         <stp/>
         <stp>_x0008_HKD1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC26" s="7"/>
       </tp>
       <tp>
-        <v>0.23</v>
+        <v>0.26</v>
         <stp/>
         <stp>_x0008_HKD1M6M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>0.24</v>
+        <v>0.30000000000000004</v>
         <stp/>
         <stp>_x0008_HKD1M9M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.29</v>
+        <v>2.0100000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AL27" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4</v>
+        <v>2.09</v>
         <stp/>
         <stp xml:space="preserve">
 HKDSTD12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AK28" s="7"/>
       </tp>
       <tp>
-        <v>0.44</v>
+        <v>0.5</v>
         <stp/>
         <stp>_x0008_HKD3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE20" s="7"/>
       </tp>
       <tp>
-        <v>1.21</v>
+        <v>1.1200000000000001</v>
         <stp/>
         <stp>_x0008_HKD3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE23" s="7"/>
       </tp>
       <tp>
-        <v>0.8</v>
+        <v>0.82000000000000006</v>
         <stp/>
         <stp>_x0008_HKD3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE22" s="7"/>
       </tp>
       <tp>
-        <v>1.72</v>
+        <v>1.53</v>
         <stp/>
         <stp>_x0008_HKD3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE25" s="7"/>
       </tp>
       <tp>
-        <v>1.51</v>
+        <v>1.36</v>
         <stp/>
         <stp>_x0008_HKD3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE24" s="7"/>
       </tp>
       <tp>
-        <v>2.02</v>
+        <v>1.79</v>
         <stp/>
         <stp>_x0008_HKD3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE26" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.61</v>
+        <v>0.65</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF21" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.29</v>
+        <v>2.0100000000000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE27" s="7"/>
       </tp>
       <tp>
-        <v>2.4</v>
+        <v>2.09</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE28" s="7"/>
       </tp>
       <tp>
-        <v>2.5</v>
+        <v>2.17</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE29" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.709649855</v>
+        <v>0.61876717700000006</v>
         <stp/>
         <stp xml:space="preserve">	HKD6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH6" s="7"/>
       </tp>
       <tp>
-        <v>0.70898881999999996</v>
+        <v>0.61863562900000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M1WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH7" s="7"/>
       </tp>
       <tp>
-        <v>0.70317613899999998</v>
+        <v>0.61623952999999998</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH9" s="7"/>
       </tp>
       <tp>
-        <v>0.70792446799999997</v>
+        <v>0.61829190700000003</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH8" s="7"/>
       </tp>
       <tp>
-        <v>0.68591491599999999</v>
+        <v>0.610230206</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH10" s="7"/>
       </tp>
       <tp>
-        <v>0.66086918500000003</v>
+        <v>0.59942353700000006</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH11" s="7"/>
       </tp>
       <tp>
-        <v>0.62419651200000004</v>
+        <v>0.58368388999999998</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH12" s="7"/>
       </tp>
       <tp>
-        <v>0.58227219399999997</v>
+        <v>0.56539224700000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH13" s="7"/>
       </tp>
       <tp>
-        <v>0.526135511</v>
+        <v>0.541600533</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH14" s="7"/>
       </tp>
       <tp>
-        <v>0.472755539</v>
+        <v>0.52004858399999998</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC27" s="7"/>
       </tp>
       <tp>
-        <v>0.47598553100000002</v>
+        <v>0.52320118100000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
       </tp>
       <tp>
-        <v>0.47921625899999998</v>
+        <v>0.52635674900000007</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC29" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.22830397699999999</v>
+        <v>0.24803053100000003</v>
         <stp/>
         <stp xml:space="preserve">	HKD1MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD6" s="7"/>
       </tp>
       <tp>
-        <v>0.227560813</v>
+        <v>0.24719603400000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M1WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD7" s="7"/>
       </tp>
       <tp>
-        <v>0.22286</v>
+        <v>0.23686000000000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
       <tp>
-        <v>0.22636061699999999</v>
+        <v>0.24524284400000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
       <tp>
-        <v>1.363016534</v>
+        <v>1.3333500140000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG27" s="7"/>
       </tp>
       <tp>
-        <v>1.382388422</v>
+        <v>1.3509305760000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG28" s="7"/>
       </tp>
       <tp>
-        <v>1.4018193889999999</v>
+        <v>1.368508869</v>
         <stp/>
         <stp xml:space="preserve">	HKD6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG29" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.37797774699999998</v>
+        <v>0.37812811200000002</v>
         <stp/>
         <stp xml:space="preserve">	HKD3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF6" s="7"/>
       </tp>
       <tp>
-        <v>0.37791912700000002</v>
+        <v>0.37820525999999999</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M1WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF7" s="7"/>
       </tp>
       <tp>
-        <v>0.37738937299999997</v>
+        <v>0.37927193600000003</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF9" s="7"/>
       </tp>
       <tp>
-        <v>0.37782547500000002</v>
+        <v>0.37837157700000001</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF8" s="7"/>
       </tp>
       <tp>
-        <v>0.373389105</v>
+        <v>0.38625363900000004</v>
         <stp/>
         <stp xml:space="preserve">	HKD3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF11" s="7"/>
@@ -2365,37 +2351,37 @@
         <tr r="AI29" s="7"/>
       </tp>
       <tp>
-        <v>0.515909375</v>
+        <v>0.57999999999999996</v>
         <stp/>
         <stp>_x000B_HKD6M4X10F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH18" s="7"/>
       </tp>
       <tp>
-        <v>0.53468946399999995</v>
+        <v>0.62258168600000008</v>
         <stp/>
         <stp>_x000B_HKD6M5X11F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH19" s="7"/>
       </tp>
       <tp>
-        <v>0.57878768599999997</v>
+        <v>0.66673624300000001</v>
         <stp/>
         <stp>_x000B_HKD6M6X12F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG20" s="7"/>
       </tp>
       <tp>
-        <v>0.57878768599999997</v>
+        <v>0.66673624300000001</v>
         <stp/>
         <stp>_x000B_HKD6M6X12F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH20" s="7"/>
       </tp>
       <tp>
-        <v>0.53468946399999995</v>
+        <v>0.62258168600000008</v>
         <stp/>
         <stp>_x000B_HKD6M5X11F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG19" s="7"/>
       </tp>
       <tp>
-        <v>0.515909375</v>
+        <v>0.57999999999999996</v>
         <stp/>
         <stp>_x000B_HKD6M4X10F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG18" s="7"/>
@@ -2428,44 +2414,44 @@
       <sheetData sheetId="0">
         <row r="22">
           <cell r="D22">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="V6">
-            <v>4.7899999999999998E-2</v>
+            <v>4.4070000000000005E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="V7">
-            <v>0.10285999999999999</v>
+            <v>9.6290000000000014E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="V9">
-            <v>0.22286</v>
+            <v>0.23686000000000001</v>
           </cell>
         </row>
         <row r="10">
           <cell r="V10">
-            <v>0.31070999999999999</v>
+            <v>0.30586000000000002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="V11">
-            <v>0.37364000000000003</v>
+            <v>0.38600000000000001</v>
           </cell>
         </row>
         <row r="12">
           <cell r="V12">
-            <v>0.53495000000000004</v>
+            <v>0.54286000000000001</v>
           </cell>
         </row>
         <row r="14">
           <cell r="V14">
-            <v>0.83714</v>
+            <v>0.84400000000000008</v>
           </cell>
         </row>
       </sheetData>
@@ -2488,7 +2474,7 @@
       <sheetData sheetId="6">
         <row r="22">
           <cell r="D22" t="str">
-            <v>J6</v>
+            <v>X6</v>
           </cell>
         </row>
       </sheetData>
@@ -2503,14 +2489,14 @@
       <sheetData sheetId="9">
         <row r="22">
           <cell r="D22" t="str">
-            <v>6L</v>
+            <v>1HI</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="22">
           <cell r="D22" t="str">
-            <v>6L</v>
+            <v>6HI</v>
           </cell>
         </row>
       </sheetData>
@@ -2918,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="60">
-        <v>41922.576851851853</v>
+        <v>42129.442453703705</v>
       </c>
       <c r="E4" s="59"/>
       <c r="F4" s="2"/>
@@ -2951,7 +2937,7 @@
       </c>
       <c r="D5" s="60">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="E5" s="59"/>
       <c r="F5" s="2"/>
@@ -2984,7 +2970,7 @@
       </c>
       <c r="D6" s="61">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="2"/>
@@ -3423,7 +3409,7 @@
       </c>
       <c r="D20" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="2"/>
@@ -6268,11 +6254,11 @@
       </c>
       <c r="J6" s="12">
         <f>'1M Pricing'!I6*100</f>
-        <v>0.2283039772974505</v>
+        <v>0.23697487051366206</v>
       </c>
       <c r="K6" s="12">
         <f>J6</f>
-        <v>0.2283039772974505</v>
+        <v>0.23697487051366206</v>
       </c>
       <c r="L6" s="105" t="str">
         <f t="shared" ref="L6:L11" si="0">A6&amp;"D"</f>
@@ -6284,11 +6270,11 @@
       </c>
       <c r="N6" s="12">
         <f>'3M Pricing'!I6*100</f>
-        <v>0.37797774744041673</v>
+        <v>0.37812811168935756</v>
       </c>
       <c r="O6" s="12">
         <f>N6</f>
-        <v>0.37797774744041673</v>
+        <v>0.37812811168935756</v>
       </c>
       <c r="P6" s="105" t="str">
         <f t="shared" ref="P6:P14" si="2">A6&amp;"D"</f>
@@ -6300,15 +6286,15 @@
       </c>
       <c r="R6" s="12">
         <f>'6M Pricing'!I6*100</f>
-        <v>0.70964985490051824</v>
+        <v>0.6187671765535141</v>
       </c>
       <c r="S6" s="12">
         <f>R6</f>
-        <v>0.70964985490051824</v>
+        <v>0.6187671765535141</v>
       </c>
       <c r="T6" s="105"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="12"/>
+      <c r="V6" s="87"/>
       <c r="W6" s="12"/>
       <c r="X6" s="105" t="str">
         <f>A6&amp;"D"</f>
@@ -6320,38 +6306,38 @@
       </c>
       <c r="Z6" s="87">
         <f>[1]Hibor!$V6</f>
-        <v>4.7899999999999998E-2</v>
+        <v>4.4070000000000005E-2</v>
       </c>
       <c r="AA6" s="87">
         <f t="shared" ref="AA6:AA29" si="4">Z6</f>
-        <v>4.7899999999999998E-2</v>
+        <v>4.4070000000000005E-2</v>
       </c>
       <c r="AB6" s="80" t="s">
         <v>51</v>
       </c>
       <c r="AC6" s="87">
         <f>ROUND(ABS(_xll.RtGet(SourceAlias,$I6,BID)-J6),4)</f>
-        <v>0</v>
+        <v>1.11E-2</v>
       </c>
       <c r="AD6" s="87">
         <f>ABS(_xll.RtGet(SourceAlias,$I6,ASK)-K6)</f>
-        <v>2.9745050866836209E-10</v>
+        <v>1.1055660486337965E-2</v>
       </c>
       <c r="AE6" s="87">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>4.4041675861805629E-10</v>
+        <v>3.1064245620271436E-10</v>
       </c>
       <c r="AF6" s="87">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>4.4041675861805629E-10</v>
+        <v>3.1064245620271436E-10</v>
       </c>
       <c r="AG6" s="87">
         <f>ABS(_xll.RtGet(SourceAlias,$Q6,BID)-R6)</f>
-        <v>9.9481756166142077E-11</v>
+        <v>4.464859593156234E-10</v>
       </c>
       <c r="AH6" s="87">
         <f>ABS(_xll.RtGet(SourceAlias,$Q6,ASK)-S6)</f>
-        <v>9.9481756166142077E-11</v>
+        <v>4.464859593156234E-10</v>
       </c>
       <c r="AI6" s="87"/>
       <c r="AJ6" s="87"/>
@@ -6429,11 +6415,11 @@
       </c>
       <c r="J7" s="14">
         <f>'1M Pricing'!I7*100</f>
-        <v>0.22756081322194976</v>
+        <v>0.23696914150027137</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" ref="K7:K29" si="5">J7</f>
-        <v>0.22756081322194976</v>
+        <v>0.23696914150027137</v>
       </c>
       <c r="L7" s="106" t="str">
         <f t="shared" si="0"/>
@@ -6445,11 +6431,11 @@
       </c>
       <c r="N7" s="14">
         <f>'3M Pricing'!I7*100</f>
-        <v>0.37791912726873161</v>
+        <v>0.37820525970541241</v>
       </c>
       <c r="O7" s="14">
         <f t="shared" ref="O7:O29" si="6">N7</f>
-        <v>0.37791912726873161</v>
+        <v>0.37820525970541241</v>
       </c>
       <c r="P7" s="106" t="str">
         <f t="shared" si="2"/>
@@ -6461,15 +6447,15 @@
       </c>
       <c r="R7" s="14">
         <f>'6M Pricing'!I7*100</f>
-        <v>0.70898881986907503</v>
+        <v>0.61863562833446606</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" ref="S7:S29" si="7">R7</f>
-        <v>0.70898881986907503</v>
+        <v>0.61863562833446606</v>
       </c>
       <c r="T7" s="106"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="14"/>
       <c r="X7" s="106" t="str">
         <f>A7&amp;"D"</f>
@@ -6481,38 +6467,38 @@
       </c>
       <c r="Z7" s="89">
         <f>[1]Hibor!$V7</f>
-        <v>0.10285999999999999</v>
+        <v>9.6290000000000014E-2</v>
       </c>
       <c r="AA7" s="89">
         <f t="shared" si="4"/>
-        <v>0.10285999999999999</v>
+        <v>9.6290000000000014E-2</v>
       </c>
       <c r="AB7" s="80" t="s">
         <v>51</v>
       </c>
       <c r="AC7" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I7,BID)-J7)</f>
-        <v>2.219497641231527E-10</v>
+        <v>1.0226892499728635E-2</v>
       </c>
       <c r="AD7" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I7,ASK)-K7)</f>
-        <v>2.219497641231527E-10</v>
+        <v>1.0226892499728635E-2</v>
       </c>
       <c r="AE7" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>2.6873159253426593E-10</v>
+        <v>2.945875765547612E-10</v>
       </c>
       <c r="AF7" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>2.6873159253426593E-10</v>
+        <v>2.945875765547612E-10</v>
       </c>
       <c r="AG7" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q7,BID)-R7)</f>
-        <v>1.3092493755806345E-10</v>
+        <v>6.6553396127488895E-10</v>
       </c>
       <c r="AH7" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q7,ASK)-S7)</f>
-        <v>1.3092493755806345E-10</v>
+        <v>6.6553396127488895E-10</v>
       </c>
       <c r="AI7" s="89"/>
       <c r="AJ7" s="89"/>
@@ -6589,11 +6575,11 @@
       </c>
       <c r="J8" s="14">
         <f>'1M Pricing'!I8*100</f>
-        <v>0.22636061715044664</v>
+        <v>0.23695038741231417</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="5"/>
-        <v>0.22636061715044664</v>
+        <v>0.23695038741231417</v>
       </c>
       <c r="L8" s="106" t="str">
         <f t="shared" si="0"/>
@@ -6605,11 +6591,11 @@
       </c>
       <c r="N8" s="14">
         <f>'3M Pricing'!I8*100</f>
-        <v>0.37782547489022067</v>
+        <v>0.3783715774452388</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" si="6"/>
-        <v>0.37782547489022067</v>
+        <v>0.3783715774452388</v>
       </c>
       <c r="P8" s="106" t="str">
         <f t="shared" si="2"/>
@@ -6621,15 +6607,15 @@
       </c>
       <c r="R8" s="14">
         <f>'6M Pricing'!I8*100</f>
-        <v>0.70792446756212657</v>
+        <v>0.61829190588395611</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="7"/>
-        <v>0.70792446756212657</v>
+        <v>0.61829190588395611</v>
       </c>
       <c r="T8" s="106"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="14"/>
       <c r="X8" s="106"/>
       <c r="Y8" s="13"/>
@@ -6640,27 +6626,27 @@
       </c>
       <c r="AC8" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I8,BID)-J8)</f>
-        <v>1.5044665513386235E-10</v>
+        <v>8.292456587685848E-3</v>
       </c>
       <c r="AD8" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I8,ASK)-K8)</f>
-        <v>1.5044665513386235E-10</v>
+        <v>8.292456587685848E-3</v>
       </c>
       <c r="AE8" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,BID)-N8)</f>
-        <v>1.0977935227529656E-10</v>
+        <v>4.4523879028091073E-10</v>
       </c>
       <c r="AF8" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,ASK)-O8)</f>
-        <v>1.0977935227529656E-10</v>
+        <v>4.4523879028091073E-10</v>
       </c>
       <c r="AG8" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q8,BID)-R8)</f>
-        <v>4.3787340420209375E-10</v>
+        <v>1.1160439239432662E-9</v>
       </c>
       <c r="AH8" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q8,ASK)-S8)</f>
-        <v>4.3787340420209375E-10</v>
+        <v>1.1160439239432662E-9</v>
       </c>
       <c r="AI8" s="89"/>
       <c r="AJ8" s="89"/>
@@ -6733,11 +6719,11 @@
       </c>
       <c r="J9" s="14">
         <f>'1M Pricing'!I9*100</f>
-        <v>0.22285999999994305</v>
+        <v>0.23685999925593754</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="5"/>
-        <v>0.22285999999994305</v>
+        <v>0.23685999925593754</v>
       </c>
       <c r="L9" s="106" t="str">
         <f t="shared" si="0"/>
@@ -6749,11 +6735,11 @@
       </c>
       <c r="N9" s="14">
         <f>'3M Pricing'!I9*100</f>
-        <v>0.37738937349451884</v>
+        <v>0.37927193655205227</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" si="6"/>
-        <v>0.37738937349451884</v>
+        <v>0.37927193655205227</v>
       </c>
       <c r="P9" s="106" t="str">
         <f t="shared" si="2"/>
@@ -6765,11 +6751,11 @@
       </c>
       <c r="R9" s="14">
         <f>'6M Pricing'!I9*100</f>
-        <v>0.70317613880543917</v>
+        <v>0.61623952902005663</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="7"/>
-        <v>0.70317613880543917</v>
+        <v>0.61623952902005663</v>
       </c>
       <c r="T9" s="106" t="str">
         <f t="shared" ref="T9:T14" si="8">A9&amp;"D"</f>
@@ -6779,13 +6765,13 @@
         <f t="shared" ref="U9:U14" si="9">Currency&amp;$T$4&amp;T9&amp;"="</f>
         <v>HKDOIS1MD=</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="89">
         <f>'ON Pricing'!I9*100</f>
-        <v>6.0000000445263081E-2</v>
+        <v>6.0000000346072981E-2</v>
       </c>
       <c r="W9" s="14">
         <f t="shared" ref="W9:W29" si="10">V9</f>
-        <v>6.0000000445263081E-2</v>
+        <v>6.0000000346072981E-2</v>
       </c>
       <c r="X9" s="106" t="str">
         <f>A9&amp;"D"</f>
@@ -6797,46 +6783,46 @@
       </c>
       <c r="Z9" s="89">
         <f>[1]Hibor!$V9</f>
-        <v>0.22286</v>
+        <v>0.23686000000000001</v>
       </c>
       <c r="AA9" s="89">
         <f t="shared" si="4"/>
-        <v>0.22286</v>
+        <v>0.23686000000000001</v>
       </c>
       <c r="AB9" s="80" t="s">
         <v>51</v>
       </c>
       <c r="AC9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I9,BID)-J9)</f>
-        <v>5.6954441163270531E-14</v>
+        <v>7.4406247829728045E-10</v>
       </c>
       <c r="AD9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I9,ASK)-K9)</f>
-        <v>5.6954441163270531E-14</v>
+        <v>7.4406247829728045E-10</v>
       </c>
       <c r="AE9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,BID)-N9)</f>
-        <v>4.945188702976111E-10</v>
+        <v>5.5205223725707242E-10</v>
       </c>
       <c r="AF9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,ASK)-O9)</f>
-        <v>4.945188702976111E-10</v>
+        <v>5.5205223725707242E-10</v>
       </c>
       <c r="AG9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q9,BID)-R9)</f>
-        <v>1.9456081190583063E-10</v>
+        <v>9.7994334868900523E-10</v>
       </c>
       <c r="AH9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q9,ASK)-S9)</f>
-        <v>1.9456081190583063E-10</v>
+        <v>9.7994334868900523E-10</v>
       </c>
       <c r="AI9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,BID)-V9)</f>
-        <v>4.4526308334846831E-10</v>
+        <v>3.4607298277089527E-10</v>
       </c>
       <c r="AJ9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,ASK)-W9)</f>
-        <v>4.4526308334846831E-10</v>
+        <v>3.4607298277089527E-10</v>
       </c>
       <c r="AK9" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y9,BID)-Z9)</f>
@@ -6919,11 +6905,11 @@
       </c>
       <c r="R10" s="14">
         <f>'6M Pricing'!I10*100</f>
-        <v>0.68591491597368304</v>
+        <v>0.61023020502521108</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="7"/>
-        <v>0.68591491597368304</v>
+        <v>0.61023020502521108</v>
       </c>
       <c r="T10" s="106" t="str">
         <f t="shared" si="8"/>
@@ -6933,13 +6919,13 @@
         <f t="shared" si="9"/>
         <v>HKDOIS2MD=</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="89">
         <f>'ON Pricing'!I10*100</f>
-        <v>5.999999989693152E-2</v>
+        <v>5.9999999880199134E-2</v>
       </c>
       <c r="W10" s="14">
         <f t="shared" si="10"/>
-        <v>5.999999989693152E-2</v>
+        <v>5.9999999880199134E-2</v>
       </c>
       <c r="X10" s="106" t="str">
         <f>A10&amp;"D"</f>
@@ -6951,11 +6937,11 @@
       </c>
       <c r="Z10" s="89">
         <f>[1]Hibor!$V10</f>
-        <v>0.31070999999999999</v>
+        <v>0.30586000000000002</v>
       </c>
       <c r="AA10" s="89">
         <f t="shared" si="4"/>
-        <v>0.31070999999999999</v>
+        <v>0.30586000000000002</v>
       </c>
       <c r="AB10" s="80" t="s">
         <v>51</v>
@@ -6966,19 +6952,19 @@
       <c r="AF10" s="89"/>
       <c r="AG10" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q10,BID)-R10)</f>
-        <v>2.6316948620319636E-11</v>
+        <v>9.7478891625257802E-10</v>
       </c>
       <c r="AH10" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q10,ASK)-S10)</f>
-        <v>2.6316948620319636E-11</v>
+        <v>9.7478891625257802E-10</v>
       </c>
       <c r="AI10" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,BID)-V10)</f>
-        <v>1.0306847736396563E-10</v>
+        <v>1.1980086367380238E-10</v>
       </c>
       <c r="AJ10" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,ASK)-W10)</f>
-        <v>1.0306847736396563E-10</v>
+        <v>1.1980086367380238E-10</v>
       </c>
       <c r="AK10" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y10,BID)-Z10)</f>
@@ -7055,11 +7041,11 @@
       </c>
       <c r="J11" s="14">
         <f>'1M Pricing'!I11*100</f>
-        <v>0.20999999999323751</v>
+        <v>0.23942600171847259</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="5"/>
-        <v>0.20999999999323751</v>
+        <v>0.23942600171847259</v>
       </c>
       <c r="L11" s="106" t="str">
         <f t="shared" si="0"/>
@@ -7071,11 +7057,11 @@
       </c>
       <c r="N11" s="14">
         <f>'3M Pricing'!I11*100</f>
-        <v>0.37338910541889753</v>
+        <v>0.38625363863899742</v>
       </c>
       <c r="O11" s="14">
         <f t="shared" si="6"/>
-        <v>0.37338910541889753</v>
+        <v>0.38625363863899742</v>
       </c>
       <c r="P11" s="106" t="str">
         <f t="shared" si="2"/>
@@ -7087,11 +7073,11 @@
       </c>
       <c r="R11" s="14">
         <f>'6M Pricing'!I11*100</f>
-        <v>0.66086918489751745</v>
+        <v>0.59942353680967631</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="7"/>
-        <v>0.66086918489751745</v>
+        <v>0.59942353680967631</v>
       </c>
       <c r="T11" s="106" t="str">
         <f t="shared" si="8"/>
@@ -7101,13 +7087,13 @@
         <f t="shared" si="9"/>
         <v>HKDOIS3MD=</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="89">
         <f>'ON Pricing'!I11*100</f>
-        <v>7.0000000015819602E-2</v>
+        <v>7.0000000021814904E-2</v>
       </c>
       <c r="W11" s="14">
         <f t="shared" si="10"/>
-        <v>7.0000000015819602E-2</v>
+        <v>7.0000000021814904E-2</v>
       </c>
       <c r="X11" s="106" t="str">
         <f>A11&amp;"D"</f>
@@ -7119,46 +7105,46 @@
       </c>
       <c r="Z11" s="89">
         <f>[1]Hibor!$V11</f>
-        <v>0.37364000000000003</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="AA11" s="89">
         <f t="shared" si="4"/>
-        <v>0.37364000000000003</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="AB11" s="80" t="s">
         <v>51</v>
       </c>
       <c r="AC11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I11,BID)-J11)</f>
-        <v>6.762479465294291E-12</v>
+        <v>2.9426001718472594E-2</v>
       </c>
       <c r="AD11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I11,ASK)-K11)</f>
-        <v>6.762479465294291E-12</v>
+        <v>2.9426001718472594E-2</v>
       </c>
       <c r="AE11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,BID)-N11)</f>
-        <v>4.1889752777635181E-10</v>
+        <v>3.6100261668892131E-10</v>
       </c>
       <c r="AF11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,ASK)-O11)</f>
-        <v>4.1889752777635181E-10</v>
+        <v>3.6100261668892131E-10</v>
       </c>
       <c r="AG11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q11,BID)-R11)</f>
-        <v>1.0248257797940141E-10</v>
+        <v>1.9032375675465119E-10</v>
       </c>
       <c r="AH11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q11,ASK)-S11)</f>
-        <v>1.0248257797940141E-10</v>
+        <v>1.9032375675465119E-10</v>
       </c>
       <c r="AI11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,BID)-V11)</f>
-        <v>1.5819595633459471E-11</v>
+        <v>2.1814897110949971E-11</v>
       </c>
       <c r="AJ11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,ASK)-W11)</f>
-        <v>1.5819595633459471E-11</v>
+        <v>2.1814897110949971E-11</v>
       </c>
       <c r="AK11" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y11,BID)-Z11)</f>
@@ -7236,11 +7222,11 @@
       </c>
       <c r="N12" s="14">
         <f>'3M Pricing'!I12*100</f>
-        <v>0.36777256195038482</v>
+        <v>0.39772522599845395</v>
       </c>
       <c r="O12" s="14">
         <f t="shared" si="6"/>
-        <v>0.36777256195038482</v>
+        <v>0.39772522599845395</v>
       </c>
       <c r="P12" s="106" t="str">
         <f t="shared" si="2"/>
@@ -7252,11 +7238,11 @@
       </c>
       <c r="R12" s="14">
         <f>'6M Pricing'!I12*100</f>
-        <v>0.62419651191679082</v>
+        <v>0.58368388923475278</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="7"/>
-        <v>0.62419651191679082</v>
+        <v>0.58368388923475278</v>
       </c>
       <c r="T12" s="106" t="str">
         <f t="shared" si="8"/>
@@ -7266,13 +7252,13 @@
         <f t="shared" si="9"/>
         <v>HKDOIS4MD=</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="89">
         <f>'ON Pricing'!I12*100</f>
-        <v>9.9999999996365718E-2</v>
+        <v>0.1000000000304742</v>
       </c>
       <c r="W12" s="14">
         <f t="shared" si="10"/>
-        <v>9.9999999996365718E-2</v>
+        <v>0.1000000000304742</v>
       </c>
       <c r="X12" s="106"/>
       <c r="Y12" s="13"/>
@@ -7285,27 +7271,27 @@
       <c r="AD12" s="89"/>
       <c r="AE12" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>4.9615200836683471E-11</v>
+        <v>1.546096584092993E-12</v>
       </c>
       <c r="AF12" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>4.9615200836683471E-11</v>
+        <v>1.546096584092993E-12</v>
       </c>
       <c r="AG12" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q12,BID)-R12)</f>
-        <v>8.3209217294211157E-11</v>
+        <v>7.6524719894166537E-10</v>
       </c>
       <c r="AH12" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q12,ASK)-S12)</f>
-        <v>8.3209217294211157E-11</v>
+        <v>7.6524719894166537E-10</v>
       </c>
       <c r="AI12" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,BID)-V12)</f>
-        <v>3.6342873155348343E-12</v>
+        <v>3.0474192613816342E-11</v>
       </c>
       <c r="AJ12" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,ASK)-W12)</f>
-        <v>3.6342873155348343E-12</v>
+        <v>3.0474192613816342E-11</v>
       </c>
       <c r="AK12" s="89"/>
       <c r="AL12" s="89"/>
@@ -7381,11 +7367,11 @@
       </c>
       <c r="R13" s="14">
         <f>'6M Pricing'!I13*100</f>
-        <v>0.58227219437130373</v>
+        <v>0.56539224691204537</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="7"/>
-        <v>0.58227219437130373</v>
+        <v>0.56539224691204537</v>
       </c>
       <c r="T13" s="106" t="str">
         <f t="shared" si="8"/>
@@ -7395,13 +7381,13 @@
         <f t="shared" si="9"/>
         <v>HKDOIS5MD=</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="89">
         <f>'ON Pricing'!I13*100</f>
-        <v>0.11000000000058274</v>
+        <v>0.11000000001936328</v>
       </c>
       <c r="W13" s="14">
         <f t="shared" si="10"/>
-        <v>0.11000000000058274</v>
+        <v>0.11000000001936328</v>
       </c>
       <c r="X13" s="106"/>
       <c r="Y13" s="13"/>
@@ -7416,19 +7402,19 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q13,BID)-R13)</f>
-        <v>3.7130376551175459E-10</v>
+        <v>8.7954643568366464E-11</v>
       </c>
       <c r="AH13" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q13,ASK)-S13)</f>
-        <v>3.7130376551175459E-10</v>
+        <v>8.7954643568366464E-11</v>
       </c>
       <c r="AI13" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,BID)-V13)</f>
-        <v>5.8274218783793685E-13</v>
+        <v>1.9363274872397085E-11</v>
       </c>
       <c r="AJ13" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,ASK)-W13)</f>
-        <v>5.8274218783793685E-13</v>
+        <v>1.9363274872397085E-11</v>
       </c>
       <c r="AK13" s="89"/>
       <c r="AL13" s="89"/>
@@ -7499,11 +7485,11 @@
       </c>
       <c r="J14" s="14">
         <f>'1M Pricing'!I14*100</f>
-        <v>0.23000000000004153</v>
+        <v>0.26005802467065015</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="5"/>
-        <v>0.23000000000004153</v>
+        <v>0.26005802467065015</v>
       </c>
       <c r="L14" s="106" t="s">
         <v>80</v>
@@ -7514,11 +7500,11 @@
       </c>
       <c r="N14" s="14">
         <f>'3M Pricing'!I14*100</f>
-        <v>0.36675083327172781</v>
+        <v>0.43545417226584054</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="6"/>
-        <v>0.36675083327172781</v>
+        <v>0.43545417226584054</v>
       </c>
       <c r="P14" s="106" t="str">
         <f t="shared" si="2"/>
@@ -7530,11 +7516,11 @@
       </c>
       <c r="R14" s="14">
         <f>'6M Pricing'!I14*100</f>
-        <v>0.52613551078341159</v>
+        <v>0.54160053322086377</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="7"/>
-        <v>0.52613551078341159</v>
+        <v>0.54160053322086377</v>
       </c>
       <c r="T14" s="106" t="str">
         <f t="shared" si="8"/>
@@ -7544,13 +7530,13 @@
         <f t="shared" si="9"/>
         <v>HKDOIS6MD=</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="89">
         <f>'ON Pricing'!I14*100</f>
-        <v>0.11999999999998065</v>
+        <v>0.12000000001845242</v>
       </c>
       <c r="W14" s="14">
         <f t="shared" si="10"/>
-        <v>0.11999999999998065</v>
+        <v>0.12000000001845242</v>
       </c>
       <c r="X14" s="106" t="str">
         <f>A14&amp;"D"</f>
@@ -7562,46 +7548,46 @@
       </c>
       <c r="Z14" s="89">
         <f>[1]Hibor!$V12</f>
-        <v>0.53495000000000004</v>
+        <v>0.54286000000000001</v>
       </c>
       <c r="AA14" s="89">
         <f t="shared" si="4"/>
-        <v>0.53495000000000004</v>
+        <v>0.54286000000000001</v>
       </c>
       <c r="AB14" s="80" t="s">
         <v>51</v>
       </c>
       <c r="AC14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I14,BID)-J14)</f>
-        <v>4.1522341120980855E-14</v>
+        <v>5.802467065013639E-5</v>
       </c>
       <c r="AD14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I14,ASK)-K14)</f>
-        <v>4.1522341120980855E-14</v>
+        <v>5.802467065013639E-5</v>
       </c>
       <c r="AE14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,BID)-N14)</f>
-        <v>2.7172780692197307E-10</v>
+        <v>2.6584051626699079E-10</v>
       </c>
       <c r="AF14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,ASK)-O14)</f>
-        <v>2.7172780692197307E-10</v>
+        <v>2.6584051626699079E-10</v>
       </c>
       <c r="AG14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q14,BID)-R14)</f>
-        <v>2.1658841387051098E-10</v>
+        <v>2.2086377171603999E-10</v>
       </c>
       <c r="AH14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q14,ASK)-S14)</f>
-        <v>2.1658841387051098E-10</v>
+        <v>2.2086377171603999E-10</v>
       </c>
       <c r="AI14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,BID)-V14)</f>
-        <v>1.9345636204093353E-14</v>
+        <v>1.8452420147418991E-11</v>
       </c>
       <c r="AJ14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,ASK)-W14)</f>
-        <v>1.9345636204093353E-14</v>
+        <v>1.8452420147418991E-11</v>
       </c>
       <c r="AK14" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y14,BID)-Z14)</f>
@@ -7681,15 +7667,15 @@
       </c>
       <c r="R15" s="14">
         <f>'6M Pricing'!I15*100</f>
-        <v>0.45649460409127918</v>
+        <v>0.50849396384904355</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="7"/>
-        <v>0.45649460409127918</v>
+        <v>0.50849396384904355</v>
       </c>
       <c r="T15" s="106"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="14"/>
       <c r="X15" s="106"/>
       <c r="Y15" s="13"/>
@@ -7702,11 +7688,11 @@
       <c r="AF15" s="89"/>
       <c r="AG15" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q15,BID)-R15)</f>
-        <v>9.1279150904455264E-11</v>
+        <v>1.5095646954677022E-10</v>
       </c>
       <c r="AH15" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q15,ASK)-S15)</f>
-        <v>9.1279150904455264E-11</v>
+        <v>1.5095646954677022E-10</v>
       </c>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
@@ -7780,15 +7766,15 @@
       </c>
       <c r="R16" s="14">
         <f>'6M Pricing'!I16*100</f>
-        <v>0.47223775558982933</v>
+        <v>0.52089011191481649</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="7"/>
-        <v>0.47223775558982933</v>
+        <v>0.52089011191481649</v>
       </c>
       <c r="T16" s="106"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
+      <c r="V16" s="89"/>
       <c r="W16" s="14"/>
       <c r="X16" s="106"/>
       <c r="Y16" s="13"/>
@@ -7801,11 +7787,11 @@
       <c r="AF16" s="89"/>
       <c r="AG16" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q16,BID)-R16)</f>
-        <v>4.10170675202437E-10</v>
+        <v>8.5183526898902073E-11</v>
       </c>
       <c r="AH16" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q16,ASK)-S16)</f>
-        <v>4.10170675202437E-10</v>
+        <v>8.5183526898902073E-11</v>
       </c>
       <c r="AI16" s="89"/>
       <c r="AJ16" s="89"/>
@@ -7875,11 +7861,11 @@
       </c>
       <c r="J17" s="14">
         <f>'1M Pricing'!I17*100</f>
-        <v>0.24000000008327455</v>
+        <v>0.30022373663119567</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="5"/>
-        <v>0.24000000008327455</v>
+        <v>0.30022373663119567</v>
       </c>
       <c r="L17" s="106" t="s">
         <v>81</v>
@@ -7890,11 +7876,11 @@
       </c>
       <c r="N17" s="14">
         <f>'3M Pricing'!I17*100</f>
-        <v>0.43125056029903081</v>
+        <v>0.53080116996043203</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" si="6"/>
-        <v>0.43125056029903081</v>
+        <v>0.53080116996043203</v>
       </c>
       <c r="P17" s="106" t="s">
         <v>84</v>
@@ -7905,11 +7891,11 @@
       </c>
       <c r="R17" s="14">
         <f>'6M Pricing'!I17*100</f>
-        <v>0.48023117582233377</v>
+        <v>0.55280631285500581</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="7"/>
-        <v>0.48023117582233377</v>
+        <v>0.55280631285500581</v>
       </c>
       <c r="T17" s="106" t="str">
         <f>A17&amp;"D"</f>
@@ -7919,13 +7905,13 @@
         <f>Currency&amp;$T$4&amp;T17&amp;"="</f>
         <v>HKDOIS9MD=</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="89">
         <f>'ON Pricing'!I17*100</f>
-        <v>0.13000000000005993</v>
+        <v>0.12999999997491271</v>
       </c>
       <c r="W17" s="14">
         <f t="shared" si="10"/>
-        <v>0.13000000000005993</v>
+        <v>0.12999999997491271</v>
       </c>
       <c r="X17" s="106"/>
       <c r="Y17" s="13"/>
@@ -7936,35 +7922,35 @@
       </c>
       <c r="AC17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I17,BID)-J17)</f>
-        <v>8.3274553919210348E-11</v>
+        <v>2.237366311956257E-4</v>
       </c>
       <c r="AD17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I17,ASK)-K17)</f>
-        <v>8.3274553919210348E-11</v>
+        <v>2.237366311956257E-4</v>
       </c>
       <c r="AE17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,BID)-N17)</f>
-        <v>2.9903080012161354E-10</v>
+        <v>3.9568015530733192E-11</v>
       </c>
       <c r="AF17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,ASK)-O17)</f>
-        <v>2.9903080012161354E-10</v>
+        <v>3.9568015530733192E-11</v>
       </c>
       <c r="AG17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q17,BID)-R17)</f>
-        <v>1.7766621507320224E-10</v>
+        <v>1.4499423883762574E-10</v>
       </c>
       <c r="AH17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q17,ASK)-S17)</f>
-        <v>1.7766621507320224E-10</v>
+        <v>1.4499423883762574E-10</v>
       </c>
       <c r="AI17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,BID)-V17)</f>
-        <v>5.9924287754142824E-14</v>
+        <v>2.5087293353820428E-11</v>
       </c>
       <c r="AJ17" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,ASK)-W17)</f>
-        <v>5.9924287754142824E-14</v>
+        <v>2.5087293353820428E-11</v>
       </c>
       <c r="AK17" s="89"/>
       <c r="AL17" s="89"/>
@@ -8038,15 +8024,15 @@
       </c>
       <c r="R18" s="14">
         <f>'6M Pricing'!I18*100</f>
-        <v>0.51590937478836452</v>
+        <v>0.57999999992733464</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="7"/>
-        <v>0.51590937478836452</v>
+        <v>0.57999999992733464</v>
       </c>
       <c r="T18" s="106"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
+      <c r="V18" s="89"/>
       <c r="W18" s="14"/>
       <c r="X18" s="106"/>
       <c r="Y18" s="13"/>
@@ -8059,11 +8045,11 @@
       <c r="AF18" s="89"/>
       <c r="AG18" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q18,BID)-R18)</f>
-        <v>2.1163548691305323E-10</v>
+        <v>7.2665318207043583E-11</v>
       </c>
       <c r="AH18" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q18,ASK)-S18)</f>
-        <v>2.1163548691305323E-10</v>
+        <v>7.2665318207043583E-11</v>
       </c>
       <c r="AI18" s="89"/>
       <c r="AJ18" s="89"/>
@@ -8137,15 +8123,15 @@
       </c>
       <c r="R19" s="14">
         <f>'6M Pricing'!I19*100</f>
-        <v>0.53468946428479602</v>
+        <v>0.62258168565395555</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="7"/>
-        <v>0.53468946428479602</v>
+        <v>0.62258168565395555</v>
       </c>
       <c r="T19" s="106"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
+      <c r="V19" s="89"/>
       <c r="W19" s="14"/>
       <c r="X19" s="106"/>
       <c r="Y19" s="13"/>
@@ -8158,11 +8144,11 @@
       <c r="AF19" s="89"/>
       <c r="AG19" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q19,BID)-R19)</f>
-        <v>2.8479607561138209E-10</v>
+        <v>3.4604452636699534E-10</v>
       </c>
       <c r="AH19" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q19,ASK)-S19)</f>
-        <v>2.8479607561138209E-10</v>
+        <v>3.4604452636699534E-10</v>
       </c>
       <c r="AI19" s="89"/>
       <c r="AJ19" s="89"/>
@@ -8233,11 +8219,11 @@
       </c>
       <c r="J20" s="14">
         <f>'1M Pricing'!I20*100</f>
-        <v>0.30000000006080707</v>
+        <v>0.35051361761695127</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" si="5"/>
-        <v>0.30000000006080707</v>
+        <v>0.35051361761695127</v>
       </c>
       <c r="L20" s="106" t="str">
         <f t="shared" ref="L20:L29" si="11">A20</f>
@@ -8249,11 +8235,11 @@
       </c>
       <c r="N20" s="14">
         <f>'3M Pricing'!I20*100</f>
-        <v>0.43999999999993855</v>
+        <v>0.50000000001514866</v>
       </c>
       <c r="O20" s="14">
         <f t="shared" si="6"/>
-        <v>0.43999999999993855</v>
+        <v>0.50000000001514866</v>
       </c>
       <c r="P20" s="106" t="s">
         <v>86</v>
@@ -8264,11 +8250,11 @@
       </c>
       <c r="R20" s="14">
         <f>'6M Pricing'!I20*100</f>
-        <v>0.57878768605019071</v>
+        <v>0.6667362429194934</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="7"/>
-        <v>0.57878768605019071</v>
+        <v>0.6667362429194934</v>
       </c>
       <c r="T20" s="106" t="str">
         <f t="shared" ref="T20:T29" si="13">A20&amp;"D"</f>
@@ -8278,13 +8264,13 @@
         <f t="shared" ref="U20:U29" si="14">Currency&amp;$T$4&amp;T20&amp;"="</f>
         <v>HKDOIS1YD=</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="89">
         <f>'ON Pricing'!I20*100</f>
-        <v>0.14999999999997807</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="W20" s="14">
         <f t="shared" si="10"/>
-        <v>0.14999999999997807</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X20" s="106" t="str">
         <f>A20&amp;"D"</f>
@@ -8296,54 +8282,54 @@
       </c>
       <c r="Z20" s="89">
         <f>[1]Hibor!$V14</f>
-        <v>0.83714</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="AA20" s="89">
         <f t="shared" si="4"/>
-        <v>0.83714</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="AB20" s="80" t="s">
         <v>51</v>
       </c>
       <c r="AC20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I20,BID)-J20)</f>
-        <v>6.0807081592173517E-11</v>
+        <v>5.1361761695123409E-4</v>
       </c>
       <c r="AD20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I20,ASK)-K20)</f>
-        <v>6.0807081592173517E-11</v>
+        <v>5.1361761695123409E-4</v>
       </c>
       <c r="AE20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M20,BID)-N20)</f>
-        <v>6.1450844413002415E-14</v>
+        <v>1.5148660104102873E-11</v>
       </c>
       <c r="AF20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M20,ASK)-O20)</f>
-        <v>6.1450844413002415E-14</v>
+        <v>1.5148660104102873E-11</v>
       </c>
       <c r="AG20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q20,BID)-R20)</f>
-        <v>5.0190740452649152E-11</v>
+        <v>8.0506601385366139E-11</v>
       </c>
       <c r="AH20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q20,ASK)-S20)</f>
-        <v>5.0190740452649152E-11</v>
+        <v>8.0506601385366139E-11</v>
       </c>
       <c r="AI20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,BID)-V20)</f>
-        <v>2.1926904736346842E-14</v>
+        <v>1.9058976619135137E-11</v>
       </c>
       <c r="AJ20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,ASK)-W20)</f>
-        <v>2.1926904736346842E-14</v>
+        <v>1.9058976619135137E-11</v>
       </c>
       <c r="AK20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y20,BID)-Z20)</f>
-        <v>0</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="AL20" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y20,ASK)-AA20)</f>
-        <v>0</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="AM20" s="38" t="s">
         <v>51</v>
@@ -8414,11 +8400,11 @@
       </c>
       <c r="N21" s="14">
         <f>'3M Pricing'!I21*100</f>
-        <v>0.6100000000339566</v>
+        <v>0.64999999999902192</v>
       </c>
       <c r="O21" s="14">
         <f t="shared" si="6"/>
-        <v>0.6100000000339566</v>
+        <v>0.64999999999902192</v>
       </c>
       <c r="P21" s="106" t="s">
         <v>88</v>
@@ -8429,11 +8415,11 @@
       </c>
       <c r="R21" s="14">
         <f>'6M Pricing'!I21*100</f>
-        <v>1.0483362123812661</v>
+        <v>1.0605667666862315</v>
       </c>
       <c r="S21" s="14">
         <f t="shared" si="7"/>
-        <v>1.0483362123812661</v>
+        <v>1.0605667666862315</v>
       </c>
       <c r="T21" s="106" t="str">
         <f t="shared" si="13"/>
@@ -8443,10 +8429,13 @@
         <f t="shared" si="14"/>
         <v>HKDOIS18MD=</v>
       </c>
-      <c r="V21" s="109"/>
-      <c r="W21" s="89">
+      <c r="V21" s="109">
+        <f>$V$20</f>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W21" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X21" s="106"/>
       <c r="Y21" s="13"/>
@@ -8459,27 +8448,27 @@
       <c r="AD21" s="89"/>
       <c r="AE21" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M21,BID)-N21)</f>
-        <v>3.3956615297370263E-11</v>
+        <v>9.7810648469476291E-13</v>
       </c>
       <c r="AF21" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M21,ASK)-O21)</f>
-        <v>3.3956615297370263E-11</v>
+        <v>9.7810648469476291E-13</v>
       </c>
       <c r="AG21" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q21,BID)-R21)</f>
-        <v>3.8126612977862351E-10</v>
+        <v>3.1376856668430264E-10</v>
       </c>
       <c r="AH21" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q21,ASK)-S21)</f>
-        <v>3.8126612977862351E-10</v>
+        <v>3.1376856668430264E-10</v>
       </c>
       <c r="AI21" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,BID)-V21)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ21" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,ASK)-W21)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK21" s="89"/>
       <c r="AL21" s="89"/>
@@ -8548,13 +8537,13 @@
         <f t="shared" ref="I22:I29" si="16">Currency&amp;$H$4&amp;H22&amp;"="</f>
         <v>HKD1M2Y=</v>
       </c>
-      <c r="J22" s="89" t="e">
+      <c r="J22" s="89">
         <f>'1M Pricing'!I22*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K22" s="89" t="e">
+        <v>0.67190632098783654</v>
+      </c>
+      <c r="K22" s="89">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0.67190632098783654</v>
       </c>
       <c r="L22" s="106" t="str">
         <f t="shared" si="11"/>
@@ -8566,11 +8555,11 @@
       </c>
       <c r="N22" s="14">
         <f>'3M Pricing'!I22*100</f>
-        <v>0.80000000000381888</v>
+        <v>0.81999999999981865</v>
       </c>
       <c r="O22" s="14">
         <f t="shared" si="6"/>
-        <v>0.80000000000381888</v>
+        <v>0.81999999999981865</v>
       </c>
       <c r="P22" s="106" t="s">
         <v>89</v>
@@ -8581,11 +8570,11 @@
       </c>
       <c r="R22" s="14">
         <f>'6M Pricing'!I22*100</f>
-        <v>1.4423504808033365</v>
+        <v>1.400000000000005</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="7"/>
-        <v>1.4423504808033365</v>
+        <v>1.400000000000005</v>
       </c>
       <c r="T22" s="106" t="str">
         <f t="shared" si="13"/>
@@ -8595,69 +8584,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS2YD=</v>
       </c>
-      <c r="V22" s="109"/>
-      <c r="W22" s="89">
+      <c r="V22" s="109">
+        <f t="shared" ref="V22:V29" si="17">$V$20</f>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W22" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X22" s="106" t="str">
-        <f t="shared" ref="X22:X29" si="17">A22</f>
+        <f t="shared" ref="X22:X29" si="18">A22</f>
         <v>2Y</v>
       </c>
       <c r="Y22" s="13" t="str">
-        <f t="shared" ref="Y22:Y29" si="18">Currency&amp;LEFT($X$4,3)&amp;X22&amp;"="</f>
+        <f t="shared" ref="Y22:Y29" si="19">Currency&amp;LEFT($X$4,3)&amp;X22&amp;"="</f>
         <v>HKDSTD2Y=</v>
       </c>
       <c r="Z22" s="89">
         <f>'STD2 Pricing'!I22*100</f>
-        <v>0.80000000000381888</v>
+        <v>0.81999999999981865</v>
       </c>
       <c r="AA22" s="89">
         <f t="shared" si="4"/>
-        <v>0.80000000000381888</v>
+        <v>0.81999999999981865</v>
       </c>
       <c r="AB22" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC22" s="89" t="e">
+      <c r="AC22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I22,BID)-J22)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD22" s="89" t="e">
+        <v>0.22728090798783651</v>
+      </c>
+      <c r="AD22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I22,ASK)-K22)</f>
-        <v>#NUM!</v>
+        <v>0.22728090798783651</v>
       </c>
       <c r="AE22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M22,BID)-N22)</f>
-        <v>3.818834137803151E-12</v>
+        <v>1.8141044222375058E-13</v>
       </c>
       <c r="AF22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M22,ASK)-O22)</f>
-        <v>3.818834137803151E-12</v>
+        <v>1.8141044222375058E-13</v>
       </c>
       <c r="AG22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q22,BID)-R22)</f>
-        <v>1.9666357431447068E-10</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="AH22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q22,ASK)-S22)</f>
-        <v>1.9666357431447068E-10</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="AI22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,BID)-V22)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,ASK)-W22)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y22,BID)-Z22)</f>
-        <v>3.818834137803151E-12</v>
+        <v>1.8141044222375058E-13</v>
       </c>
       <c r="AL22" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y22,ASK)-AA22)</f>
-        <v>3.818834137803151E-12</v>
+        <v>1.8141044222375058E-13</v>
       </c>
       <c r="AM22" s="38" t="s">
         <v>51</v>
@@ -8724,13 +8716,13 @@
         <f t="shared" si="16"/>
         <v>HKD1M3Y=</v>
       </c>
-      <c r="J23" s="89" t="e">
+      <c r="J23" s="89">
         <f>'1M Pricing'!I23*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K23" s="89" t="e">
+        <v>0.99400270647815769</v>
+      </c>
+      <c r="K23" s="89">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0.99400270647815769</v>
       </c>
       <c r="L23" s="106" t="str">
         <f t="shared" si="11"/>
@@ -8742,14 +8734,14 @@
       </c>
       <c r="N23" s="14">
         <f>'3M Pricing'!I23*100</f>
-        <v>1.210000000021233</v>
+        <v>1.1199999999728079</v>
       </c>
       <c r="O23" s="14">
         <f t="shared" si="6"/>
-        <v>1.210000000021233</v>
+        <v>1.1199999999728079</v>
       </c>
       <c r="P23" s="106" t="str">
-        <f t="shared" ref="P23:P29" si="19">A23</f>
+        <f t="shared" ref="P23:P29" si="20">A23</f>
         <v>3Y</v>
       </c>
       <c r="Q23" s="13" t="str">
@@ -8758,11 +8750,11 @@
       </c>
       <c r="R23" s="14">
         <f>'6M Pricing'!I23*100</f>
-        <v>1.0903771507520796</v>
+        <v>1.0867542824620136</v>
       </c>
       <c r="S23" s="14">
         <f t="shared" si="7"/>
-        <v>1.0903771507520796</v>
+        <v>1.0867542824620136</v>
       </c>
       <c r="T23" s="106" t="str">
         <f t="shared" si="13"/>
@@ -8772,69 +8764,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS3YD=</v>
       </c>
-      <c r="V23" s="109"/>
-      <c r="W23" s="89">
+      <c r="V23" s="109">
+        <f t="shared" si="17"/>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W23" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X23" s="106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3Y</v>
       </c>
       <c r="Y23" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HKDSTD3Y=</v>
       </c>
       <c r="Z23" s="89">
         <f>'STD2 Pricing'!I23*100</f>
-        <v>1.210000000021233</v>
+        <v>1.1199999999728079</v>
       </c>
       <c r="AA23" s="89">
         <f t="shared" si="4"/>
-        <v>1.210000000021233</v>
+        <v>1.1199999999728079</v>
       </c>
       <c r="AB23" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC23" s="89" t="e">
+      <c r="AC23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I23,BID)-J23)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD23" s="89" t="e">
+        <v>0.5180684324781577</v>
+      </c>
+      <c r="AD23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I23,ASK)-K23)</f>
-        <v>#NUM!</v>
+        <v>0.5180684324781577</v>
       </c>
       <c r="AE23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M23,BID)-N23)</f>
-        <v>2.1233015345956119E-11</v>
+        <v>2.7192248452934109E-11</v>
       </c>
       <c r="AF23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M23,ASK)-O23)</f>
-        <v>2.1233015345956119E-11</v>
+        <v>2.7192248452934109E-11</v>
       </c>
       <c r="AG23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q23,BID)-R23)</f>
-        <v>2.4792035091536491E-10</v>
+        <v>4.6201353853803084E-10</v>
       </c>
       <c r="AH23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q23,ASK)-S23)</f>
-        <v>2.4792035091536491E-10</v>
+        <v>4.6201353853803084E-10</v>
       </c>
       <c r="AI23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U23,BID)-V23)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U23,ASK)-W23)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y23,BID)-Z23)</f>
-        <v>2.1233015345956119E-11</v>
+        <v>2.7192248452934109E-11</v>
       </c>
       <c r="AL23" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y23,ASK)-AA23)</f>
-        <v>2.1233015345956119E-11</v>
+        <v>2.7192248452934109E-11</v>
       </c>
       <c r="AM23" s="38" t="s">
         <v>51</v>
@@ -8901,13 +8896,13 @@
         <f t="shared" si="16"/>
         <v>HKD1M4Y=</v>
       </c>
-      <c r="J24" s="89" t="e">
+      <c r="J24" s="89">
         <f>'1M Pricing'!I24*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K24" s="89" t="e">
+        <v>1.2461038820992516</v>
+      </c>
+      <c r="K24" s="89">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>1.2461038820992516</v>
       </c>
       <c r="L24" s="106" t="str">
         <f t="shared" si="11"/>
@@ -8919,14 +8914,14 @@
       </c>
       <c r="N24" s="14">
         <f>'3M Pricing'!I24*100</f>
-        <v>1.510000000000933</v>
+        <v>1.3599999999989083</v>
       </c>
       <c r="O24" s="14">
         <f t="shared" si="6"/>
-        <v>1.510000000000933</v>
+        <v>1.3599999999989083</v>
       </c>
       <c r="P24" s="106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4Y</v>
       </c>
       <c r="Q24" s="13" t="str">
@@ -8935,11 +8930,11 @@
       </c>
       <c r="R24" s="14">
         <f>'6M Pricing'!I24*100</f>
-        <v>1.1881804967792147</v>
+        <v>1.1746411713900082</v>
       </c>
       <c r="S24" s="14">
         <f t="shared" si="7"/>
-        <v>1.1881804967792147</v>
+        <v>1.1746411713900082</v>
       </c>
       <c r="T24" s="106" t="str">
         <f t="shared" si="13"/>
@@ -8949,69 +8944,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS4YD=</v>
       </c>
-      <c r="V24" s="109"/>
-      <c r="W24" s="89">
+      <c r="V24" s="109">
+        <f t="shared" si="17"/>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W24" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X24" s="106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4Y</v>
       </c>
       <c r="Y24" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HKDSTD4Y=</v>
       </c>
       <c r="Z24" s="89">
         <f>'STD2 Pricing'!I24*100</f>
-        <v>1.510000000000933</v>
+        <v>1.3599999999989083</v>
       </c>
       <c r="AA24" s="89">
         <f t="shared" si="4"/>
-        <v>1.510000000000933</v>
+        <v>1.3599999999989083</v>
       </c>
       <c r="AB24" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC24" s="89" t="e">
+      <c r="AC24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I24,BID)-J24)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD24" s="89" t="e">
+        <v>0.75446197409925153</v>
+      </c>
+      <c r="AD24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I24,ASK)-K24)</f>
-        <v>#NUM!</v>
+        <v>0.75446197409925153</v>
       </c>
       <c r="AE24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M24,BID)-N24)</f>
-        <v>9.3303142989498156E-13</v>
+        <v>1.0917933224163789E-12</v>
       </c>
       <c r="AF24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M24,ASK)-O24)</f>
-        <v>9.3303142989498156E-13</v>
+        <v>1.0917933224163789E-12</v>
       </c>
       <c r="AG24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q24,BID)-R24)</f>
-        <v>2.2078538997050146E-10</v>
+        <v>3.9000824791912692E-10</v>
       </c>
       <c r="AH24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q24,ASK)-S24)</f>
-        <v>2.2078538997050146E-10</v>
+        <v>3.9000824791912692E-10</v>
       </c>
       <c r="AI24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,BID)-V24)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,ASK)-W24)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y24,BID)-Z24)</f>
-        <v>9.3303142989498156E-13</v>
+        <v>1.0917933224163789E-12</v>
       </c>
       <c r="AL24" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y24,ASK)-AA24)</f>
-        <v>9.3303142989498156E-13</v>
+        <v>1.0917933224163789E-12</v>
       </c>
       <c r="AM24" s="38" t="s">
         <v>51</v>
@@ -9078,13 +9076,13 @@
         <f t="shared" si="16"/>
         <v>HKD1M5Y=</v>
       </c>
-      <c r="J25" s="89" t="e">
+      <c r="J25" s="89">
         <f>'1M Pricing'!I25*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K25" s="89" t="e">
+        <v>1.4279121388438172</v>
+      </c>
+      <c r="K25" s="89">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>1.4279121388438172</v>
       </c>
       <c r="L25" s="106" t="str">
         <f t="shared" si="11"/>
@@ -9096,14 +9094,14 @@
       </c>
       <c r="N25" s="14">
         <f>'3M Pricing'!I25*100</f>
-        <v>1.7199999999996207</v>
+        <v>1.5300000000003138</v>
       </c>
       <c r="O25" s="14">
         <f t="shared" si="6"/>
-        <v>1.7199999999996207</v>
+        <v>1.5300000000003138</v>
       </c>
       <c r="P25" s="106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5Y</v>
       </c>
       <c r="Q25" s="13" t="str">
@@ -9112,11 +9110,11 @@
       </c>
       <c r="R25" s="14">
         <f>'6M Pricing'!I25*100</f>
-        <v>1.2463194559864343</v>
+        <v>1.2276686071389886</v>
       </c>
       <c r="S25" s="14">
         <f t="shared" si="7"/>
-        <v>1.2463194559864343</v>
+        <v>1.2276686071389886</v>
       </c>
       <c r="T25" s="106" t="str">
         <f t="shared" si="13"/>
@@ -9126,69 +9124,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS5YD=</v>
       </c>
-      <c r="V25" s="109"/>
-      <c r="W25" s="89">
+      <c r="V25" s="109">
+        <f t="shared" si="17"/>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W25" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X25" s="106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5Y</v>
       </c>
       <c r="Y25" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HKDSTD5Y=</v>
       </c>
       <c r="Z25" s="89">
         <f>'STD2 Pricing'!I25*100</f>
-        <v>1.7199999999996207</v>
+        <v>1.5300000000003138</v>
       </c>
       <c r="AA25" s="89">
         <f t="shared" si="4"/>
-        <v>1.7199999999996207</v>
+        <v>1.5300000000003138</v>
       </c>
       <c r="AB25" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC25" s="89" t="e">
+      <c r="AC25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I25,BID)-J25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD25" s="89" t="e">
+        <v>0.92678571484381711</v>
+      </c>
+      <c r="AD25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I25,ASK)-K25)</f>
-        <v>#NUM!</v>
+        <v>0.92678571484381711</v>
       </c>
       <c r="AE25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
-        <v>3.7925218521195347E-13</v>
+        <v>3.1374902675906924E-13</v>
       </c>
       <c r="AF25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
-        <v>3.7925218521195347E-13</v>
+        <v>3.1374902675906924E-13</v>
       </c>
       <c r="AG25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q25,BID)-R25)</f>
-        <v>1.3565593093289863E-11</v>
+        <v>1.3898859840821842E-10</v>
       </c>
       <c r="AH25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q25,ASK)-S25)</f>
-        <v>1.3565593093289863E-11</v>
+        <v>1.3898859840821842E-10</v>
       </c>
       <c r="AI25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,BID)-V25)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,ASK)-W25)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y25,BID)-Z25)</f>
-        <v>3.7925218521195347E-13</v>
+        <v>3.1374902675906924E-13</v>
       </c>
       <c r="AL25" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y25,ASK)-AA25)</f>
-        <v>3.7925218521195347E-13</v>
+        <v>3.1374902675906924E-13</v>
       </c>
       <c r="AM25" s="38" t="s">
         <v>51</v>
@@ -9255,13 +9256,13 @@
         <f t="shared" si="16"/>
         <v>HKD1M7Y=</v>
       </c>
-      <c r="J26" s="89" t="e">
+      <c r="J26" s="89">
         <f>'1M Pricing'!I26*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K26" s="89" t="e">
+        <v>1.7213339716688418</v>
+      </c>
+      <c r="K26" s="89">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>1.7213339716688418</v>
       </c>
       <c r="L26" s="106" t="str">
         <f t="shared" si="11"/>
@@ -9273,14 +9274,14 @@
       </c>
       <c r="N26" s="14">
         <f>'3M Pricing'!I26*100</f>
-        <v>2.0200000000020961</v>
+        <v>1.7899999999967866</v>
       </c>
       <c r="O26" s="14">
         <f t="shared" si="6"/>
-        <v>2.0200000000020961</v>
+        <v>1.7899999999967866</v>
       </c>
       <c r="P26" s="106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7Y</v>
       </c>
       <c r="Q26" s="13" t="str">
@@ -9289,11 +9290,11 @@
       </c>
       <c r="R26" s="14">
         <f>'6M Pricing'!I26*100</f>
-        <v>1.3129819394805038</v>
+        <v>1.288053474628732</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="7"/>
-        <v>1.3129819394805038</v>
+        <v>1.288053474628732</v>
       </c>
       <c r="T26" s="106" t="str">
         <f t="shared" si="13"/>
@@ -9303,69 +9304,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS7YD=</v>
       </c>
-      <c r="V26" s="109"/>
-      <c r="W26" s="89">
+      <c r="V26" s="109">
+        <f t="shared" si="17"/>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W26" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X26" s="106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7Y</v>
       </c>
       <c r="Y26" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HKDSTD7Y=</v>
       </c>
       <c r="Z26" s="89">
         <f>'STD2 Pricing'!I26*100</f>
-        <v>2.0200000000020961</v>
+        <v>1.7899999999967866</v>
       </c>
       <c r="AA26" s="89">
         <f t="shared" si="4"/>
-        <v>2.0200000000020961</v>
+        <v>1.7899999999967866</v>
       </c>
       <c r="AB26" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC26" s="89" t="e">
+      <c r="AC26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I26,BID)-J26)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD26" s="89" t="e">
+        <v>1.2094002056688418</v>
+      </c>
+      <c r="AD26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I26,ASK)-K26)</f>
-        <v>#NUM!</v>
+        <v>1.2094002056688418</v>
       </c>
       <c r="AE26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>2.0961010704922955E-12</v>
+        <v>3.2134295224750531E-12</v>
       </c>
       <c r="AF26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>2.0961010704922955E-12</v>
+        <v>3.2134295224750531E-12</v>
       </c>
       <c r="AG26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q26,BID)-R26)</f>
-        <v>4.8050385892395298E-10</v>
+        <v>6.2873195538770688E-10</v>
       </c>
       <c r="AH26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q26,ASK)-S26)</f>
-        <v>4.8050385892395298E-10</v>
+        <v>6.2873195538770688E-10</v>
       </c>
       <c r="AI26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,BID)-V26)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,ASK)-W26)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y26,BID)-Z26)</f>
-        <v>2.0961010704922955E-12</v>
+        <v>3.2134295224750531E-12</v>
       </c>
       <c r="AL26" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y26,ASK)-AA26)</f>
-        <v>2.0961010704922955E-12</v>
+        <v>3.2134295224750531E-12</v>
       </c>
       <c r="AM26" s="38" t="s">
         <v>51</v>
@@ -9432,13 +9436,13 @@
         <f t="shared" si="16"/>
         <v>HKD1M10Y=</v>
       </c>
-      <c r="J27" s="89" t="e">
+      <c r="J27" s="89">
         <f>'1M Pricing'!I27*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K27" s="89" t="e">
+        <v>1.9544313564940452</v>
+      </c>
+      <c r="K27" s="89">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>1.9544313564940452</v>
       </c>
       <c r="L27" s="106" t="str">
         <f t="shared" si="11"/>
@@ -9450,14 +9454,14 @@
       </c>
       <c r="N27" s="14">
         <f>'3M Pricing'!I27*100</f>
-        <v>2.2899999999986855</v>
+        <v>2.0100000000017366</v>
       </c>
       <c r="O27" s="14">
         <f t="shared" si="6"/>
-        <v>2.2899999999986855</v>
+        <v>2.0100000000017366</v>
       </c>
       <c r="P27" s="106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10Y</v>
       </c>
       <c r="Q27" s="13" t="str">
@@ -9466,11 +9470,11 @@
       </c>
       <c r="R27" s="14">
         <f>'6M Pricing'!I27*100</f>
-        <v>1.3630165342429961</v>
+        <v>1.3333500141191914</v>
       </c>
       <c r="S27" s="14">
         <f t="shared" si="7"/>
-        <v>1.3630165342429961</v>
+        <v>1.3333500141191914</v>
       </c>
       <c r="T27" s="106" t="str">
         <f t="shared" si="13"/>
@@ -9480,69 +9484,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS10YD=</v>
       </c>
-      <c r="V27" s="109"/>
-      <c r="W27" s="89">
+      <c r="V27" s="109">
+        <f t="shared" si="17"/>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W27" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X27" s="106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10Y</v>
       </c>
       <c r="Y27" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HKDSTD10Y=</v>
       </c>
       <c r="Z27" s="89">
         <f>'STD2 Pricing'!I27*100</f>
-        <v>2.2899999999986855</v>
+        <v>2.0100000000017366</v>
       </c>
       <c r="AA27" s="89">
         <f t="shared" si="4"/>
-        <v>2.2899999999986855</v>
+        <v>2.0100000000017366</v>
       </c>
       <c r="AB27" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC27" s="89" t="e">
+      <c r="AC27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I27,BID)-J27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD27" s="89" t="e">
+        <v>1.4343827724940452</v>
+      </c>
+      <c r="AD27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I27,ASK)-K27)</f>
-        <v>#NUM!</v>
+        <v>1.4343827724940452</v>
       </c>
       <c r="AE27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>1.3145040611561853E-12</v>
+        <v>1.7363888105137448E-12</v>
       </c>
       <c r="AF27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>1.3145040611561853E-12</v>
+        <v>1.7363888105137448E-12</v>
       </c>
       <c r="AG27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q27,BID)-R27)</f>
-        <v>2.4299606771194249E-10</v>
+        <v>1.1919132347770756E-10</v>
       </c>
       <c r="AH27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q27,ASK)-S27)</f>
-        <v>2.4299606771194249E-10</v>
+        <v>1.1919132347770756E-10</v>
       </c>
       <c r="AI27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,BID)-V27)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,ASK)-W27)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y27,BID)-Z27)</f>
-        <v>1.3145040611561853E-12</v>
+        <v>1.7363888105137448E-12</v>
       </c>
       <c r="AL27" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y27,ASK)-AA27)</f>
-        <v>1.3145040611561853E-12</v>
+        <v>1.7363888105137448E-12</v>
       </c>
       <c r="AM27" s="38" t="s">
         <v>51</v>
@@ -9609,13 +9616,13 @@
         <f t="shared" si="16"/>
         <v>HKD1M12Y=</v>
       </c>
-      <c r="J28" s="89" t="e">
+      <c r="J28" s="89">
         <f>'1M Pricing'!I28*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K28" s="89" t="e">
+        <v>2.0660923421472726</v>
+      </c>
+      <c r="K28" s="89">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>2.0660923421472726</v>
       </c>
       <c r="L28" s="106" t="str">
         <f t="shared" si="11"/>
@@ -9627,14 +9634,14 @@
       </c>
       <c r="N28" s="14">
         <f>'3M Pricing'!I28*100</f>
-        <v>2.3999999999913078</v>
+        <v>2.0900000000000905</v>
       </c>
       <c r="O28" s="14">
         <f t="shared" si="6"/>
-        <v>2.3999999999913078</v>
+        <v>2.0900000000000905</v>
       </c>
       <c r="P28" s="106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12Y</v>
       </c>
       <c r="Q28" s="13" t="str">
@@ -9643,11 +9650,11 @@
       </c>
       <c r="R28" s="14">
         <f>'6M Pricing'!I28*100</f>
-        <v>1.3823884223126133</v>
+        <v>1.3509305758051049</v>
       </c>
       <c r="S28" s="14">
         <f>R28</f>
-        <v>1.3823884223126133</v>
+        <v>1.3509305758051049</v>
       </c>
       <c r="T28" s="106" t="str">
         <f t="shared" si="13"/>
@@ -9657,69 +9664,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS12YD=</v>
       </c>
-      <c r="V28" s="109"/>
-      <c r="W28" s="89">
+      <c r="V28" s="109">
+        <f t="shared" si="17"/>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W28" s="109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X28" s="106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12Y</v>
       </c>
       <c r="Y28" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HKDSTD12Y=</v>
       </c>
       <c r="Z28" s="89">
         <f>'STD2 Pricing'!I28*100</f>
-        <v>2.3999999999913078</v>
+        <v>2.0900000000000905</v>
       </c>
       <c r="AA28" s="89">
         <f t="shared" si="4"/>
-        <v>2.3999999999913078</v>
+        <v>2.0900000000000905</v>
       </c>
       <c r="AB28" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC28" s="89" t="e">
+      <c r="AC28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I28,BID)-J28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD28" s="89" t="e">
+        <v>1.5428911611472724</v>
+      </c>
+      <c r="AD28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$I28,ASK)-K28)</f>
-        <v>#NUM!</v>
+        <v>1.5428911611472724</v>
       </c>
       <c r="AE28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>8.6921581043952756E-12</v>
+        <v>9.0594198809412774E-14</v>
       </c>
       <c r="AF28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>8.6921581043952756E-12</v>
+        <v>9.0594198809412774E-14</v>
       </c>
       <c r="AG28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q28,BID)-R28)</f>
-        <v>3.126132686048777E-10</v>
+        <v>1.9489521108084773E-10</v>
       </c>
       <c r="AH28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Q28,ASK)-S28)</f>
-        <v>3.126132686048777E-10</v>
+        <v>1.9489521108084773E-10</v>
       </c>
       <c r="AI28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,BID)-V28)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,ASK)-W28)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y28,BID)-Z28)</f>
-        <v>8.6921581043952756E-12</v>
+        <v>9.0594198809412774E-14</v>
       </c>
       <c r="AL28" s="89">
         <f>ABS(_xll.RtGet(SourceAlias,$Y28,ASK)-AA28)</f>
-        <v>8.6921581043952756E-12</v>
+        <v>9.0594198809412774E-14</v>
       </c>
       <c r="AM28" s="38" t="s">
         <v>51</v>
@@ -9786,13 +9796,13 @@
         <f t="shared" si="16"/>
         <v>HKD1M15Y=</v>
       </c>
-      <c r="J29" s="91" t="e">
+      <c r="J29" s="91">
         <f>'1M Pricing'!I29*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K29" s="91" t="e">
+        <v>2.1472857419414559</v>
+      </c>
+      <c r="K29" s="91">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>2.1472857419414559</v>
       </c>
       <c r="L29" s="107" t="str">
         <f t="shared" si="11"/>
@@ -9804,14 +9814,14 @@
       </c>
       <c r="N29" s="16">
         <f>'3M Pricing'!I29*100</f>
-        <v>2.4999999999954694</v>
+        <v>2.1700000000074708</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" si="6"/>
-        <v>2.4999999999954694</v>
+        <v>2.1700000000074708</v>
       </c>
       <c r="P29" s="107" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15Y</v>
       </c>
       <c r="Q29" s="15" t="str">
@@ -9820,11 +9830,11 @@
       </c>
       <c r="R29" s="16">
         <f>'6M Pricing'!I29*100</f>
-        <v>1.4018193888486419</v>
+        <v>1.3685088691286926</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" si="7"/>
-        <v>1.4018193888486419</v>
+        <v>1.3685088691286926</v>
       </c>
       <c r="T29" s="107" t="str">
         <f t="shared" si="13"/>
@@ -9834,69 +9844,72 @@
         <f t="shared" si="14"/>
         <v>HKDOIS15YD=</v>
       </c>
-      <c r="V29" s="110"/>
-      <c r="W29" s="91">
+      <c r="V29" s="110">
+        <f t="shared" si="17"/>
+        <v>0.14999999998094102</v>
+      </c>
+      <c r="W29" s="110">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="X29" s="107" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15Y</v>
       </c>
       <c r="Y29" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HKDSTD15Y=</v>
       </c>
       <c r="Z29" s="91">
         <f>'STD2 Pricing'!I29*100</f>
-        <v>2.4999999999954694</v>
+        <v>2.1700000000074708</v>
       </c>
       <c r="AA29" s="91">
         <f t="shared" si="4"/>
-        <v>2.4999999999954694</v>
+        <v>2.1700000000074708</v>
       </c>
       <c r="AB29" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AC29" s="91" t="e">
+      <c r="AC29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$I29,BID)-J29)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD29" s="91" t="e">
+        <v>1.6209289929414559</v>
+      </c>
+      <c r="AD29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$I29,ASK)-K29)</f>
-        <v>#NUM!</v>
+        <v>1.6209289929414559</v>
       </c>
       <c r="AE29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,BID)-N29)</f>
-        <v>4.5305981188903388E-12</v>
+        <v>7.4709127773076034E-12</v>
       </c>
       <c r="AF29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,ASK)-O29)</f>
-        <v>4.5305981188903388E-12</v>
+        <v>7.4709127773076034E-12</v>
       </c>
       <c r="AG29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$Q29,BID)-R29)</f>
-        <v>1.5135803721477714E-10</v>
+        <v>1.2869261212244965E-10</v>
       </c>
       <c r="AH29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$Q29,ASK)-S29)</f>
-        <v>1.5135803721477714E-10</v>
+        <v>1.2869261212244965E-10</v>
       </c>
       <c r="AI29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,BID)-V29)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AJ29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,ASK)-W29)</f>
-        <v>0</v>
+        <v>0.14999999998094102</v>
       </c>
       <c r="AK29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$Y29,BID)-Z29)</f>
-        <v>4.5305981188903388E-12</v>
+        <v>7.4709127773076034E-12</v>
       </c>
       <c r="AL29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$Y29,ASK)-AA29)</f>
-        <v>4.5305981188903388E-12</v>
+        <v>7.4709127773076034E-12</v>
       </c>
       <c r="AM29" s="38" t="s">
         <v>51</v>
@@ -14115,19 +14128,19 @@
       </c>
       <c r="F6" s="42">
         <f t="shared" ref="F6:F29" si="0">EvaluationDate</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G6" s="42">
         <f>_xll.qlInterestRateIndexValueDate(M6,F6,Trigger)</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlInterestRateIndexMaturity(M6,G6,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="I6" s="48">
         <f>_xll.qlIndexFixing(M6,F6,TRUE,AllTriggers)</f>
-        <v>2.2830397729745049E-3</v>
+        <v>2.3697487051366206E-3</v>
       </c>
       <c r="J6" s="49" t="str">
         <f>Contribution!I6</f>
@@ -14137,7 +14150,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="78" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D6="ON",D6="TN",D6="SN"),"1D",IF(D6="SW","1W",D6)),0,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0020d#0000</v>
+        <v>obj_00219#0000</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="b">
@@ -14171,19 +14184,19 @@
       </c>
       <c r="F7" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G7" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H7" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41932</v>
+        <v>42137</v>
       </c>
       <c r="I7" s="44">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,AllTriggers)</f>
-        <v>2.2756081322194976E-3</v>
+        <v>2.3696914150027138E-3</v>
       </c>
       <c r="J7" s="35" t="str">
         <f>Contribution!I7</f>
@@ -14193,7 +14206,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D7="ON",D7="TN",D7="SN"),"1D",IF(D7="SW","1W",D7)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c8#0000</v>
+        <v>obj_00209#0000</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -14221,19 +14234,19 @@
       </c>
       <c r="F8" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41939</v>
+        <v>42144</v>
       </c>
       <c r="I8" s="44">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,AllTriggers)</f>
-        <v>2.2636061715044665E-3</v>
+        <v>2.3695038741231417E-3</v>
       </c>
       <c r="J8" s="35" t="str">
         <f>Contribution!I8</f>
@@ -14243,7 +14256,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D8="ON",D8="TN",D8="SN"),"1D",IF(D8="SW","1W",D8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001b6#0000</v>
+        <v>obj_001fb#0000</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -14271,19 +14284,19 @@
       </c>
       <c r="F9" s="46">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G9" s="46">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H9" s="46">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41956</v>
+        <v>42163</v>
       </c>
       <c r="I9" s="47">
         <f>_xll.qlIndexFixing(M3,F9,TRUE,AllTriggers)</f>
-        <v>2.2285999999994304E-3</v>
+        <v>2.3685999925593753E-3</v>
       </c>
       <c r="J9" s="37" t="str">
         <f>Contribution!I9</f>
@@ -14293,7 +14306,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="108" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D9="ON",D9="TN",D9="SN"),"1D",IF(D9="SW","1W",D9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001da#0000</v>
+        <v>obj_001e2#0000</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -14357,19 +14370,19 @@
       </c>
       <c r="F11" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G11" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H11" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>42017</v>
+        <v>42222</v>
       </c>
       <c r="I11" s="44">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,AllTriggers)</f>
-        <v>2.0999999999323751E-3</v>
+        <v>2.3942600171847259E-3</v>
       </c>
       <c r="J11" s="35" t="str">
         <f>Contribution!I11</f>
@@ -14379,7 +14392,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="78" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D11,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001b9#0000</v>
+        <v>obj_001c3#0000</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="77" t="s">
@@ -14413,26 +14426,26 @@
       </c>
       <c r="F12" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G12" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H12" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>42048</v>
+        <v>42254</v>
       </c>
       <c r="I12" s="44">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,AllTriggers)</f>
-        <v>2.1812472183958781E-3</v>
+        <v>2.442131676907195E-3</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="38"/>
       <c r="M12" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D12,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c0#0000</v>
+        <v>obj_001ee#0000</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="79"/>
@@ -14460,26 +14473,26 @@
       </c>
       <c r="F13" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G13" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H13" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
-        <v>42076</v>
+        <v>42283</v>
       </c>
       <c r="I13" s="44">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,AllTriggers)</f>
-        <v>2.2577078904065669E-3</v>
+        <v>2.507457898928925E-3</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="38"/>
       <c r="M13" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D13,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d0#0000</v>
+        <v>obj_001c5#0000</v>
       </c>
       <c r="N13" s="38"/>
       <c r="O13" s="79"/>
@@ -14507,19 +14520,19 @@
       </c>
       <c r="F14" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G14" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H14" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M14,G14,Trigger)</f>
-        <v>42107</v>
+        <v>42314</v>
       </c>
       <c r="I14" s="44">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,AllTriggers)</f>
-        <v>2.3000000000004154E-3</v>
+        <v>2.6005802467065015E-3</v>
       </c>
       <c r="J14" s="35" t="str">
         <f>Contribution!I14</f>
@@ -14529,7 +14542,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D14,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ec#0000</v>
+        <v>obj_001ce#0000</v>
       </c>
       <c r="N14" s="38"/>
       <c r="O14" s="79"/>
@@ -14557,26 +14570,26 @@
       </c>
       <c r="F15" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G15" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M15,F15,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H15" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M15,G15,Trigger)</f>
-        <v>42137</v>
+        <v>42345</v>
       </c>
       <c r="I15" s="44">
         <f>_xll.qlIndexFixing(M15,F15,TRUE,AllTriggers)</f>
-        <v>2.296820340704274E-3</v>
+        <v>2.716544729114056E-3</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="38"/>
       <c r="M15" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D15,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001de#0000</v>
+        <v>obj_001d4#0000</v>
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="79"/>
@@ -14604,26 +14617,26 @@
       </c>
       <c r="F16" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G16" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M16,F16,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H16" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M16,G16,Trigger)</f>
-        <v>42170</v>
+        <v>42375</v>
       </c>
       <c r="I16" s="44">
         <f>_xll.qlIndexFixing(M16,F16,TRUE,AllTriggers)</f>
-        <v>2.3171523288252022E-3</v>
+        <v>2.8455558402891781E-3</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="38"/>
       <c r="M16" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D16,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f4#0000</v>
+        <v>obj_0020b#0000</v>
       </c>
       <c r="N16" s="38"/>
       <c r="O16" s="79"/>
@@ -14651,19 +14664,19 @@
       </c>
       <c r="F17" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G17" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M17,F17,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H17" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M17,G17,Trigger)</f>
-        <v>42198</v>
+        <v>42408</v>
       </c>
       <c r="I17" s="44">
         <f>_xll.qlIndexFixing(M17,F17,TRUE,AllTriggers)</f>
-        <v>2.4000000008327456E-3</v>
+        <v>3.0022373663119565E-3</v>
       </c>
       <c r="J17" s="35" t="str">
         <f>Contribution!I17</f>
@@ -14673,7 +14686,7 @@
       <c r="L17" s="38"/>
       <c r="M17" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D17,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e9#0000</v>
+        <v>obj_001c6#0000</v>
       </c>
       <c r="N17" s="75"/>
       <c r="O17" s="79"/>
@@ -14701,26 +14714,26 @@
       </c>
       <c r="F18" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G18" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M18,F18,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H18" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M18,G18,Trigger)</f>
-        <v>42229</v>
+        <v>42436</v>
       </c>
       <c r="I18" s="44">
         <f>_xll.qlIndexFixing(M18,F18,TRUE,AllTriggers)</f>
-        <v>2.5759522664813234E-3</v>
+        <v>3.1463063800735848E-3</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="38"/>
       <c r="M18" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D18,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ce#0000</v>
+        <v>obj_001e9#0000</v>
       </c>
       <c r="N18" s="75"/>
       <c r="O18" s="79"/>
@@ -14748,26 +14761,26 @@
       </c>
       <c r="F19" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G19" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M19,F19,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H19" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M19,G19,Trigger)</f>
-        <v>42261</v>
+        <v>42466</v>
       </c>
       <c r="I19" s="44">
         <f>_xll.qlIndexFixing(M19,F19,TRUE,AllTriggers)</f>
-        <v>2.8001039661775169E-3</v>
+        <v>3.3159052231481216E-3</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="38"/>
       <c r="M19" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D19,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f5#0000</v>
+        <v>obj_001db#0000</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="79"/>
@@ -14795,19 +14808,19 @@
       </c>
       <c r="F20" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G20" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M20,F20,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H20" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M20,G20,Trigger)</f>
-        <v>42290</v>
+        <v>42496</v>
       </c>
       <c r="I20" s="44">
         <f>_xll.qlIndexFixing(M20,F20,TRUE,AllTriggers)</f>
-        <v>3.0000000006080709E-3</v>
+        <v>3.5051361761695128E-3</v>
       </c>
       <c r="J20" s="35" t="str">
         <f>Contribution!I20</f>
@@ -14817,7 +14830,7 @@
       <c r="L20" s="38"/>
       <c r="M20" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D20,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00200#0000</v>
+        <v>obj_001eb#0000</v>
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="79"/>
@@ -14845,26 +14858,26 @@
       </c>
       <c r="F21" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G21" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M21,F21,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H21" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M21,G21,Trigger)</f>
-        <v>42473</v>
-      </c>
-      <c r="I21" s="97" t="e">
+        <v>42681</v>
+      </c>
+      <c r="I21" s="97">
         <f>_xll.qlIndexFixing(M21,F21,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>5.0095635695331228E-3</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
       <c r="L21" s="116"/>
       <c r="M21" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D21,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e4#0000</v>
+        <v>obj_001f3#0000</v>
       </c>
       <c r="N21" s="75"/>
       <c r="O21" s="79"/>
@@ -14892,19 +14905,19 @@
       </c>
       <c r="F22" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G22" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M22,F22,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H22" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M22,G22,Trigger)</f>
-        <v>42656</v>
-      </c>
-      <c r="I22" s="97" t="e">
+        <v>42863</v>
+      </c>
+      <c r="I22" s="97">
         <f>_xll.qlIndexFixing(M22,F22,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>6.7190632098783655E-3</v>
       </c>
       <c r="J22" s="51" t="str">
         <f>Contribution!I22</f>
@@ -14914,7 +14927,7 @@
       <c r="L22" s="116"/>
       <c r="M22" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D22,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d3#0000</v>
+        <v>obj_00208#0000</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="79"/>
@@ -14942,19 +14955,19 @@
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G23" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H23" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
-        <v>43021</v>
-      </c>
-      <c r="I23" s="97" t="e">
+        <v>43227</v>
+      </c>
+      <c r="I23" s="97">
         <f>_xll.qlIndexFixing(M23,F23,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>9.9400270647815765E-3</v>
       </c>
       <c r="J23" s="51" t="str">
         <f>Contribution!I23</f>
@@ -14964,7 +14977,7 @@
       <c r="L23" s="116"/>
       <c r="M23" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001cb#0000</v>
+        <v>obj_001ca#0000</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -14992,19 +15005,19 @@
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G24" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H24" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>43388</v>
-      </c>
-      <c r="I24" s="97" t="e">
+        <v>43591</v>
+      </c>
+      <c r="I24" s="97">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>1.2461038820992516E-2</v>
       </c>
       <c r="J24" s="51" t="str">
         <f>Contribution!I24</f>
@@ -15014,7 +15027,7 @@
       <c r="L24" s="116"/>
       <c r="M24" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e5#0000</v>
+        <v>obj_001de#0000</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -15042,19 +15055,19 @@
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G25" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H25" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>43752</v>
-      </c>
-      <c r="I25" s="97" t="e">
+        <v>43957</v>
+      </c>
+      <c r="I25" s="97">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>1.4279121388438171E-2</v>
       </c>
       <c r="J25" s="51" t="str">
         <f>Contribution!I25</f>
@@ -15064,7 +15077,7 @@
       <c r="L25" s="116"/>
       <c r="M25" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ca#0000</v>
+        <v>obj_001f0#0000</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -15092,19 +15105,19 @@
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G26" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H26" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>44482</v>
-      </c>
-      <c r="I26" s="97" t="e">
+        <v>44687</v>
+      </c>
+      <c r="I26" s="97">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>1.7213339716688418E-2</v>
       </c>
       <c r="J26" s="51" t="str">
         <f>Contribution!I26</f>
@@ -15114,7 +15127,7 @@
       <c r="L26" s="116"/>
       <c r="M26" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c2#0000</v>
+        <v>obj_001e1#0000</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -15142,19 +15155,19 @@
       </c>
       <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G27" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H27" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>45579</v>
-      </c>
-      <c r="I27" s="97" t="e">
+        <v>45783</v>
+      </c>
+      <c r="I27" s="97">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>1.9544313564940453E-2</v>
       </c>
       <c r="J27" s="51" t="str">
         <f>Contribution!I27</f>
@@ -15164,7 +15177,7 @@
       <c r="L27" s="116"/>
       <c r="M27" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001b8#0000</v>
+        <v>obj_00201#0000</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -15192,19 +15205,19 @@
       </c>
       <c r="F28" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G28" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H28" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>46308</v>
-      </c>
-      <c r="I28" s="97" t="e">
+        <v>46513</v>
+      </c>
+      <c r="I28" s="97">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>2.0660923421472726E-2</v>
       </c>
       <c r="J28" s="51" t="str">
         <f>Contribution!I28</f>
@@ -15214,7 +15227,7 @@
       <c r="L28" s="116"/>
       <c r="M28" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ea#0000</v>
+        <v>obj_001da#0000</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -15242,19 +15255,19 @@
       </c>
       <c r="F29" s="123">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G29" s="123">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H29" s="123">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>47406</v>
-      </c>
-      <c r="I29" s="98" t="e">
+        <v>47609</v>
+      </c>
+      <c r="I29" s="98">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
-        <v>#NUM!</v>
+        <v>2.147285741941456E-2</v>
       </c>
       <c r="J29" s="125" t="str">
         <f>Contribution!I29</f>
@@ -15264,7 +15277,7 @@
       <c r="L29" s="116"/>
       <c r="M29" s="126" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c1#0000</v>
+        <v>obj_001dd#0000</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -18313,19 +18326,19 @@
       </c>
       <c r="F6" s="42">
         <f t="shared" ref="F6:F29" si="0">EvaluationDate</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G6" s="42">
         <f>_xll.qlInterestRateIndexValueDate(M6,F6,Trigger)</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlInterestRateIndexMaturity(M6,G6,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="I6" s="48">
         <f>_xll.qlIndexFixing(M6,F6,TRUE,AllTriggers)</f>
-        <v>3.7797774744041672E-3</v>
+        <v>3.7812811168935756E-3</v>
       </c>
       <c r="J6" s="49" t="str">
         <f>Contribution!M6</f>
@@ -18335,7 +18348,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="78" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D6="ON",D6="TN",D6="SN"),"1D",IF(D6="SW","1W",D6)),0,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001bf#0000</v>
+        <v>obj_001d6#0000</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="b">
@@ -18369,19 +18382,19 @@
       </c>
       <c r="F7" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G7" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H7" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41932</v>
+        <v>42137</v>
       </c>
       <c r="I7" s="44">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,AllTriggers)</f>
-        <v>3.7791912726873162E-3</v>
+        <v>3.7820525970541242E-3</v>
       </c>
       <c r="J7" s="35" t="str">
         <f>Contribution!M7</f>
@@ -18391,7 +18404,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D7="ON",D7="TN",D7="SN"),"1D",IF(D7="SW","1W",D7)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00206#0000</v>
+        <v>obj_001dc#0000</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -18419,19 +18432,19 @@
       </c>
       <c r="F8" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41939</v>
+        <v>42144</v>
       </c>
       <c r="I8" s="44">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,AllTriggers)</f>
-        <v>3.7782547489022067E-3</v>
+        <v>3.7837157744523881E-3</v>
       </c>
       <c r="J8" s="35" t="str">
         <f>Contribution!M8</f>
@@ -18441,7 +18454,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D8="ON",D8="TN",D8="SN"),"1D",IF(D8="SW","1W",D8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c7#0000</v>
+        <v>obj_001ef#0000</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -18469,19 +18482,19 @@
       </c>
       <c r="F9" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G9" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H9" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41956</v>
+        <v>42163</v>
       </c>
       <c r="I9" s="44">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,AllTriggers)</f>
-        <v>3.7738937349451884E-3</v>
+        <v>3.7927193655205227E-3</v>
       </c>
       <c r="J9" s="35" t="str">
         <f>Contribution!M9</f>
@@ -18491,7 +18504,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D9="ON",D9="TN",D9="SN"),"1D",IF(D9="SW","1W",D9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001d9#0000</v>
+        <v>obj_001f9#0000</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -18519,26 +18532,26 @@
       </c>
       <c r="F10" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G10" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H10" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>41988</v>
+        <v>42191</v>
       </c>
       <c r="I10" s="44">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,AllTriggers)</f>
-        <v>3.7576610664293744E-3</v>
+        <v>3.8179538079863113E-3</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="38"/>
       <c r="M10" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D10="ON",D10="TN",D10="SN"),"1D",IF(D10="SW","1W",D10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c5#0000</v>
+        <v>obj_001c4#0000</v>
       </c>
       <c r="N10" s="75"/>
       <c r="O10" s="79"/>
@@ -18566,19 +18579,19 @@
       </c>
       <c r="F11" s="46">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G11" s="46">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H11" s="46">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>42017</v>
+        <v>42222</v>
       </c>
       <c r="I11" s="47">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,AllTriggers)</f>
-        <v>3.7338910541889754E-3</v>
+        <v>3.862536386389974E-3</v>
       </c>
       <c r="J11" s="37" t="str">
         <f>Contribution!M11</f>
@@ -18588,7 +18601,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="29" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D11="ON",D11="TN",D11="SN"),"1D",IF(D11="SW","1W",D11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001cc#0000</v>
+        <v>obj_001cd#0000</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="79"/>
@@ -18620,19 +18633,19 @@
       </c>
       <c r="F12" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G12,Trigger)</f>
-        <v>41957</v>
+        <v>42163</v>
       </c>
       <c r="G12" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B12&amp;"M","mf",TRUE)</f>
-        <v>41957</v>
+        <v>42163</v>
       </c>
       <c r="H12" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G12,Trigger)</f>
-        <v>42051</v>
+        <v>42255</v>
       </c>
       <c r="I12" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F12,TRUE,AllTriggers)</f>
-        <v>3.6777256195038481E-3</v>
+        <v>3.9772522599845397E-3</v>
       </c>
       <c r="J12" s="35" t="str">
         <f>Contribution!M12</f>
@@ -18671,19 +18684,19 @@
       </c>
       <c r="F13" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G13,Trigger)</f>
-        <v>41988</v>
+        <v>42192</v>
       </c>
       <c r="G13" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B13&amp;"M","mf",TRUE)</f>
-        <v>41988</v>
+        <v>42192</v>
       </c>
       <c r="H13" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G13,Trigger)</f>
-        <v>42079</v>
+        <v>42284</v>
       </c>
       <c r="I13" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F13,TRUE,AllTriggers)</f>
-        <v>3.6441346827550559E-3</v>
+        <v>4.1289600089536062E-3</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
@@ -18719,19 +18732,19 @@
       </c>
       <c r="F14" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G14,Trigger)</f>
-        <v>42018</v>
+        <v>42223</v>
       </c>
       <c r="G14" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B14&amp;"M","mf",TRUE)</f>
-        <v>42018</v>
+        <v>42223</v>
       </c>
       <c r="H14" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G14,Trigger)</f>
-        <v>42108</v>
+        <v>42317</v>
       </c>
       <c r="I14" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F14,TRUE,AllTriggers)</f>
-        <v>3.6675083327172781E-3</v>
+        <v>4.3545417226584053E-3</v>
       </c>
       <c r="J14" s="35" t="str">
         <f>Contribution!M14</f>
@@ -18770,19 +18783,19 @@
       </c>
       <c r="F15" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G15,Trigger)</f>
-        <v>42051</v>
+        <v>42254</v>
       </c>
       <c r="G15" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B15&amp;"M","mf",TRUE)</f>
-        <v>42051</v>
+        <v>42254</v>
       </c>
       <c r="H15" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G15,Trigger)</f>
-        <v>42142</v>
+        <v>42345</v>
       </c>
       <c r="I15" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F15,TRUE,AllTriggers)</f>
-        <v>3.8042374645420583E-3</v>
+        <v>4.6129449336835019E-3</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -18818,19 +18831,19 @@
       </c>
       <c r="F16" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G16,Trigger)</f>
-        <v>42079</v>
+        <v>42284</v>
       </c>
       <c r="G16" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B16&amp;"M","mf",TRUE)</f>
-        <v>42079</v>
+        <v>42284</v>
       </c>
       <c r="H16" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G16,Trigger)</f>
-        <v>42171</v>
+        <v>42376</v>
       </c>
       <c r="I16" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F16,TRUE,AllTriggers)</f>
-        <v>4.0158913574080673E-3</v>
+        <v>4.927357528195786E-3</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -18866,19 +18879,19 @@
       </c>
       <c r="F17" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17,Trigger)</f>
-        <v>42108</v>
+        <v>42317</v>
       </c>
       <c r="G17" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B17&amp;"M","mf",TRUE)</f>
-        <v>42108</v>
+        <v>42317</v>
       </c>
       <c r="H17" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G17,Trigger)</f>
-        <v>42199</v>
+        <v>42409</v>
       </c>
       <c r="I17" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,AllTriggers)</f>
-        <v>4.3125056029903082E-3</v>
+        <v>5.3080116996043203E-3</v>
       </c>
       <c r="J17" s="35" t="str">
         <f>Contribution!M17</f>
@@ -18917,19 +18930,19 @@
       </c>
       <c r="F18" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18,Trigger)</f>
-        <v>42138</v>
+        <v>42345</v>
       </c>
       <c r="G18" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B18&amp;"M","mf",TRUE)</f>
-        <v>42138</v>
+        <v>42345</v>
       </c>
       <c r="H18" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42230</v>
+        <v>42436</v>
       </c>
       <c r="I18" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,AllTriggers)</f>
-        <v>4.7293800170592403E-3</v>
+        <v>5.6532358361565307E-3</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -18965,19 +18978,19 @@
       </c>
       <c r="F19" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19,Trigger)</f>
-        <v>42170</v>
+        <v>42376</v>
       </c>
       <c r="G19" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B19&amp;"M","mf",TRUE)</f>
-        <v>42170</v>
+        <v>42376</v>
       </c>
       <c r="H19" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
-        <v>42262</v>
+        <v>42467</v>
       </c>
       <c r="I19" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,AllTriggers)</f>
-        <v>5.2866211324644335E-3</v>
+        <v>6.0889675738436989E-3</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
@@ -19017,19 +19030,19 @@
       </c>
       <c r="F20" s="100">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G20" s="100">
         <f>_xll.qlInterestRateIndexValueDate(M20,F20,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H20" s="100">
         <f>_xll.qlInterestRateIndexMaturity(M20,G20,Trigger)</f>
-        <v>42290</v>
+        <v>42496</v>
       </c>
       <c r="I20" s="48">
         <f>_xll.qlIndexFixing(M20,F20,TRUE,AllTriggers)</f>
-        <v>4.3999999999993853E-3</v>
+        <v>5.0000000001514866E-3</v>
       </c>
       <c r="J20" s="49" t="str">
         <f>Contribution!M20</f>
@@ -19039,7 +19052,7 @@
       <c r="L20" s="116"/>
       <c r="M20" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D20,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ba#0000</v>
+        <v>obj_001d5#0000</v>
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="77" t="s">
@@ -19073,19 +19086,19 @@
       </c>
       <c r="F21" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G21" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M21,F21,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H21" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M21,G21,Trigger)</f>
-        <v>42473</v>
+        <v>42681</v>
       </c>
       <c r="I21" s="96">
         <f>_xll.qlIndexFixing(M21,F21,TRUE,AllTriggers)</f>
-        <v>6.1000000003395656E-3</v>
+        <v>6.4999999999902193E-3</v>
       </c>
       <c r="J21" s="51" t="str">
         <f>Contribution!M21</f>
@@ -19095,7 +19108,7 @@
       <c r="L21" s="116"/>
       <c r="M21" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D21,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001b7#0000</v>
+        <v>obj_001e4#0000</v>
       </c>
       <c r="N21" s="75"/>
       <c r="O21" s="79"/>
@@ -19123,19 +19136,19 @@
       </c>
       <c r="F22" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G22" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M22,F22,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H22" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M22,G22,Trigger)</f>
-        <v>42656</v>
+        <v>42863</v>
       </c>
       <c r="I22" s="96">
         <f>_xll.qlIndexFixing(M22,F22,TRUE,AllTriggers)</f>
-        <v>8.0000000000381884E-3</v>
+        <v>8.1999999999981862E-3</v>
       </c>
       <c r="J22" s="51" t="str">
         <f>Contribution!M22</f>
@@ -19145,7 +19158,7 @@
       <c r="L22" s="116"/>
       <c r="M22" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D22,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00203#0000</v>
+        <v>obj_001e0#0000</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="79"/>
@@ -19173,19 +19186,19 @@
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G23" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H23" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
-        <v>43021</v>
+        <v>43227</v>
       </c>
       <c r="I23" s="96">
         <f>_xll.qlIndexFixing(M23,F23,TRUE,AllTriggers)</f>
-        <v>1.210000000021233E-2</v>
+        <v>1.1199999999728079E-2</v>
       </c>
       <c r="J23" s="51" t="str">
         <f>Contribution!M23</f>
@@ -19195,7 +19208,7 @@
       <c r="L23" s="116"/>
       <c r="M23" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d5#0000</v>
+        <v>obj_001fe#0000</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -19223,19 +19236,19 @@
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G24" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H24" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>43388</v>
+        <v>43591</v>
       </c>
       <c r="I24" s="96">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,AllTriggers)</f>
-        <v>1.510000000000933E-2</v>
+        <v>1.3599999999989083E-2</v>
       </c>
       <c r="J24" s="51" t="str">
         <f>Contribution!M24</f>
@@ -19245,7 +19258,7 @@
       <c r="L24" s="116"/>
       <c r="M24" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00205#0000</v>
+        <v>obj_00206#0000</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -19273,19 +19286,19 @@
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G25" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H25" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>43752</v>
+        <v>43957</v>
       </c>
       <c r="I25" s="96">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,AllTriggers)</f>
-        <v>1.7199999999996208E-2</v>
+        <v>1.5300000000003137E-2</v>
       </c>
       <c r="J25" s="51" t="str">
         <f>Contribution!M25</f>
@@ -19295,7 +19308,7 @@
       <c r="L25" s="116"/>
       <c r="M25" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001bd#0000</v>
+        <v>obj_001e8#0000</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -19323,19 +19336,19 @@
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G26" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H26" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>44482</v>
+        <v>44687</v>
       </c>
       <c r="I26" s="96">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,AllTriggers)</f>
-        <v>2.0200000000020962E-2</v>
+        <v>1.7899999999967865E-2</v>
       </c>
       <c r="J26" s="51" t="str">
         <f>Contribution!M26</f>
@@ -19345,7 +19358,7 @@
       <c r="L26" s="116"/>
       <c r="M26" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e3#0000</v>
+        <v>obj_001d9#0000</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -19373,19 +19386,19 @@
       </c>
       <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G27" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H27" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>45579</v>
+        <v>45783</v>
       </c>
       <c r="I27" s="96">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,AllTriggers)</f>
-        <v>2.2899999999986854E-2</v>
+        <v>2.0100000000017368E-2</v>
       </c>
       <c r="J27" s="51" t="str">
         <f>Contribution!M27</f>
@@ -19395,7 +19408,7 @@
       <c r="L27" s="116"/>
       <c r="M27" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ee#0000</v>
+        <v>obj_001c7#0000</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -19423,19 +19436,19 @@
       </c>
       <c r="F28" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G28" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H28" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>46308</v>
+        <v>46513</v>
       </c>
       <c r="I28" s="96">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,AllTriggers)</f>
-        <v>2.3999999999913077E-2</v>
+        <v>2.0900000000000904E-2</v>
       </c>
       <c r="J28" s="51" t="str">
         <f>Contribution!M28</f>
@@ -19445,7 +19458,7 @@
       <c r="L28" s="116"/>
       <c r="M28" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001be#0000</v>
+        <v>obj_001ec#0000</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -19473,19 +19486,19 @@
       </c>
       <c r="F29" s="123">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G29" s="123">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H29" s="123">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>47406</v>
+        <v>47609</v>
       </c>
       <c r="I29" s="124">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
-        <v>2.4999999999954694E-2</v>
+        <v>2.1700000000074708E-2</v>
       </c>
       <c r="J29" s="125" t="str">
         <f>Contribution!M29</f>
@@ -19495,7 +19508,7 @@
       <c r="L29" s="116"/>
       <c r="M29" s="126" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001cf#0000</v>
+        <v>obj_001d3#0000</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -22530,19 +22543,19 @@
       </c>
       <c r="F6" s="42">
         <f t="shared" ref="F6:F29" si="0">EvaluationDate</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G6" s="42">
         <f>_xll.qlInterestRateIndexValueDate(M6,F6,Trigger)</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlInterestRateIndexMaturity(M6,G6,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="I6" s="48">
         <f>_xll.qlIndexFixing(M6,F6,TRUE,AllTriggers)</f>
-        <v>7.0964985490051822E-3</v>
+        <v>6.187671765535141E-3</v>
       </c>
       <c r="J6" s="49" t="str">
         <f>Contribution!Q6</f>
@@ -22552,7 +22565,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="78" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D6="ON",D6="TN",D6="SN"),"1D",IF(D6="SW","1W",D6)),0,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c3#0000</v>
+        <v>obj_001d1#0000</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="b">
@@ -22586,19 +22599,19 @@
       </c>
       <c r="F7" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G7" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H7" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41932</v>
+        <v>42137</v>
       </c>
       <c r="I7" s="44">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,AllTriggers)</f>
-        <v>7.0898881986907504E-3</v>
+        <v>6.1863562833446607E-3</v>
       </c>
       <c r="J7" s="35" t="str">
         <f>Contribution!Q7</f>
@@ -22608,7 +22621,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D7="ON",D7="TN",D7="SN"),"1D",IF(D7="SW","1W",D7)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001f3#0000</v>
+        <v>obj_00204#0000</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -22636,19 +22649,19 @@
       </c>
       <c r="F8" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41939</v>
+        <v>42144</v>
       </c>
       <c r="I8" s="44">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,AllTriggers)</f>
-        <v>7.0792446756212657E-3</v>
+        <v>6.1829190588395611E-3</v>
       </c>
       <c r="J8" s="35" t="str">
         <f>Contribution!Q8</f>
@@ -22658,7 +22671,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D8="ON",D8="TN",D8="SN"),"1D",IF(D8="SW","1W",D8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001f1#0000</v>
+        <v>obj_001cb#0000</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -22686,19 +22699,19 @@
       </c>
       <c r="F9" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G9" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H9" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41956</v>
+        <v>42163</v>
       </c>
       <c r="I9" s="44">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,AllTriggers)</f>
-        <v>7.0317613880543917E-3</v>
+        <v>6.162395290200566E-3</v>
       </c>
       <c r="J9" s="35" t="str">
         <f>Contribution!Q9</f>
@@ -22708,7 +22721,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D9="ON",D9="TN",D9="SN"),"1D",IF(D9="SW","1W",D9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001f2#0000</v>
+        <v>obj_00200#0000</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -22736,19 +22749,19 @@
       </c>
       <c r="F10" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G10" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H10" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>41988</v>
+        <v>42191</v>
       </c>
       <c r="I10" s="44">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,AllTriggers)</f>
-        <v>6.8591491597368307E-3</v>
+        <v>6.1023020502521111E-3</v>
       </c>
       <c r="J10" s="35" t="str">
         <f>Contribution!Q10</f>
@@ -22786,19 +22799,19 @@
       </c>
       <c r="F11" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G11" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H11" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>42017</v>
+        <v>42222</v>
       </c>
       <c r="I11" s="44">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,AllTriggers)</f>
-        <v>6.6086918489751748E-3</v>
+        <v>5.9942353680967628E-3</v>
       </c>
       <c r="J11" s="35" t="str">
         <f>Contribution!Q11</f>
@@ -22808,7 +22821,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D11="ON",D11="TN",D11="SN"),"1D",IF(D11="SW","1W",D11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c6#0000</v>
+        <v>obj_001d7#0000</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="79"/>
@@ -22836,19 +22849,19 @@
       </c>
       <c r="F12" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G12" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H12" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>42048</v>
+        <v>42254</v>
       </c>
       <c r="I12" s="44">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,AllTriggers)</f>
-        <v>6.2419651191679085E-3</v>
+        <v>5.8368388923475279E-3</v>
       </c>
       <c r="J12" s="35" t="str">
         <f>Contribution!Q12</f>
@@ -22858,7 +22871,7 @@
       <c r="L12" s="38"/>
       <c r="M12" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D12="ON",D12="TN",D12="SN"),"1D",IF(D12="SW","1W",D12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001d8#0000</v>
+        <v>obj_001f2#0000</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="79"/>
@@ -22886,19 +22899,19 @@
       </c>
       <c r="F13" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G13" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H13" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
-        <v>42076</v>
+        <v>42283</v>
       </c>
       <c r="I13" s="44">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,AllTriggers)</f>
-        <v>5.8227219437130377E-3</v>
+        <v>5.6539224691204539E-3</v>
       </c>
       <c r="J13" s="35" t="str">
         <f>Contribution!Q13</f>
@@ -22908,7 +22921,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D13="ON",D13="TN",D13="SN"),"1D",IF(D13="SW","1W",D13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001e0#0000</v>
+        <v>obj_001fd#0000</v>
       </c>
       <c r="N13" s="38"/>
       <c r="O13" s="79"/>
@@ -22936,19 +22949,19 @@
       </c>
       <c r="F14" s="46">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G14" s="123">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H14" s="46">
         <f>_xll.qlInterestRateIndexMaturity(M14,G14,Trigger)</f>
-        <v>42107</v>
+        <v>42314</v>
       </c>
       <c r="I14" s="47">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,AllTriggers)</f>
-        <v>5.2613551078341154E-3</v>
+        <v>5.4160053322086371E-3</v>
       </c>
       <c r="J14" s="37" t="str">
         <f>Contribution!Q14</f>
@@ -22958,7 +22971,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="29" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D14="ON",D14="TN",D14="SN"),"1D",IF(D14="SW","1W",D14)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00207#0000</v>
+        <v>obj_001c9#0000</v>
       </c>
       <c r="N14" s="38"/>
       <c r="O14" s="79"/>
@@ -22990,19 +23003,19 @@
       </c>
       <c r="F15" s="42">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G15,Trigger)</f>
-        <v>41957</v>
+        <v>42163</v>
       </c>
       <c r="G15" s="100">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B15&amp;"M","mf",TRUE)</f>
-        <v>41957</v>
+        <v>42163</v>
       </c>
       <c r="H15" s="42">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G15,Trigger)</f>
-        <v>42138</v>
+        <v>42346</v>
       </c>
       <c r="I15" s="43">
         <f>_xll.qlIndexFixing(IborIndex,F15,TRUE,AllTriggers)</f>
-        <v>4.5649460409127917E-3</v>
+        <v>5.084939638490436E-3</v>
       </c>
       <c r="J15" s="36" t="str">
         <f>Contribution!Q15</f>
@@ -23041,19 +23054,19 @@
       </c>
       <c r="F16" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G16,Trigger)</f>
-        <v>41988</v>
+        <v>42192</v>
       </c>
       <c r="G16" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B16&amp;"M","mf",TRUE)</f>
-        <v>41988</v>
+        <v>42192</v>
       </c>
       <c r="H16" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G16,Trigger)</f>
-        <v>42170</v>
+        <v>42376</v>
       </c>
       <c r="I16" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F16,TRUE,AllTriggers)</f>
-        <v>4.7223775558982934E-3</v>
+        <v>5.2089011191481646E-3</v>
       </c>
       <c r="J16" s="35" t="str">
         <f>Contribution!Q16</f>
@@ -23092,19 +23105,19 @@
       </c>
       <c r="F17" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17,Trigger)</f>
-        <v>42018</v>
+        <v>42223</v>
       </c>
       <c r="G17" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B17&amp;"M","mf",TRUE)</f>
-        <v>42018</v>
+        <v>42223</v>
       </c>
       <c r="H17" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G17,Trigger)</f>
-        <v>42199</v>
+        <v>42408</v>
       </c>
       <c r="I17" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,AllTriggers)</f>
-        <v>4.8023117582233375E-3</v>
+        <v>5.5280631285500583E-3</v>
       </c>
       <c r="J17" s="35" t="str">
         <f>Contribution!Q17</f>
@@ -23143,19 +23156,19 @@
       </c>
       <c r="F18" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18,Trigger)</f>
-        <v>42051</v>
+        <v>42254</v>
       </c>
       <c r="G18" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B18&amp;"M","mf",TRUE)</f>
-        <v>42051</v>
+        <v>42254</v>
       </c>
       <c r="H18" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42233</v>
+        <v>42436</v>
       </c>
       <c r="I18" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,AllTriggers)</f>
-        <v>5.1590937478836457E-3</v>
+        <v>5.7999999992733465E-3</v>
       </c>
       <c r="J18" s="35" t="str">
         <f>Contribution!Q18</f>
@@ -23194,19 +23207,19 @@
       </c>
       <c r="F19" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19,Trigger)</f>
-        <v>42079</v>
+        <v>42284</v>
       </c>
       <c r="G19" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B19&amp;"M","mf",TRUE)</f>
-        <v>42079</v>
+        <v>42284</v>
       </c>
       <c r="H19" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
-        <v>42263</v>
+        <v>42467</v>
       </c>
       <c r="I19" s="44">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,AllTriggers)</f>
-        <v>5.3468946428479602E-3</v>
+        <v>6.2258168565395558E-3</v>
       </c>
       <c r="J19" s="35" t="str">
         <f>Contribution!Q19</f>
@@ -23245,19 +23258,19 @@
       </c>
       <c r="F20" s="120">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20,Trigger)</f>
-        <v>42108</v>
+        <v>42317</v>
       </c>
       <c r="G20" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B20&amp;"M","mf",TRUE)</f>
-        <v>42108</v>
+        <v>42317</v>
       </c>
       <c r="H20" s="120">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
-        <v>42291</v>
+        <v>42499</v>
       </c>
       <c r="I20" s="96">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,AllTriggers)</f>
-        <v>5.7878768605019067E-3</v>
+        <v>6.6673624291949335E-3</v>
       </c>
       <c r="J20" s="51" t="str">
         <f>Contribution!Q20</f>
@@ -23296,19 +23309,19 @@
       </c>
       <c r="F21" s="120">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21,Trigger)</f>
-        <v>42291</v>
+        <v>42499</v>
       </c>
       <c r="G21" s="120">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B21&amp;"M","mf",TRUE)</f>
-        <v>42291</v>
+        <v>42499</v>
       </c>
       <c r="H21" s="120">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
-        <v>42474</v>
+        <v>42683</v>
       </c>
       <c r="I21" s="96">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,AllTriggers)</f>
-        <v>1.0483362123812661E-2</v>
+        <v>1.0605667666862315E-2</v>
       </c>
       <c r="J21" s="51" t="str">
         <f>Contribution!Q21</f>
@@ -23347,19 +23360,19 @@
       </c>
       <c r="F22" s="123">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22,Trigger)</f>
-        <v>42474</v>
+        <v>42681</v>
       </c>
       <c r="G22" s="123">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B22&amp;"M","mf",TRUE)</f>
-        <v>42474</v>
+        <v>42681</v>
       </c>
       <c r="H22" s="123">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
-        <v>42657</v>
+        <v>42863</v>
       </c>
       <c r="I22" s="124">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,AllTriggers)</f>
-        <v>1.4423504808033366E-2</v>
+        <v>1.4000000000000051E-2</v>
       </c>
       <c r="J22" s="125" t="str">
         <f>Contribution!Q22</f>
@@ -23402,19 +23415,19 @@
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G23" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H23" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
-        <v>43021</v>
+        <v>43227</v>
       </c>
       <c r="I23" s="96">
         <f>_xll.qlIndexFixing(M23,F23,TRUE,AllTriggers)</f>
-        <v>1.0903771507520796E-2</v>
+        <v>1.0867542824620135E-2</v>
       </c>
       <c r="J23" s="51" t="str">
         <f>Contribution!Q23</f>
@@ -23424,7 +23437,7 @@
       <c r="L23" s="116"/>
       <c r="M23" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d4#0000</v>
+        <v>obj_001fc#0000</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="77" t="s">
@@ -23458,19 +23471,19 @@
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G24" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H24" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>43388</v>
+        <v>43591</v>
       </c>
       <c r="I24" s="96">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,AllTriggers)</f>
-        <v>1.1881804967792146E-2</v>
+        <v>1.1746411713900081E-2</v>
       </c>
       <c r="J24" s="51" t="str">
         <f>Contribution!Q24</f>
@@ -23480,7 +23493,7 @@
       <c r="L24" s="116"/>
       <c r="M24" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001bc#0000</v>
+        <v>obj_001cf#0000</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -23508,19 +23521,19 @@
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G25" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H25" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>43752</v>
+        <v>43957</v>
       </c>
       <c r="I25" s="96">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,AllTriggers)</f>
-        <v>1.2463194559864344E-2</v>
+        <v>1.2276686071389887E-2</v>
       </c>
       <c r="J25" s="51" t="str">
         <f>Contribution!Q25</f>
@@ -23530,7 +23543,7 @@
       <c r="L25" s="116"/>
       <c r="M25" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d2#0000</v>
+        <v>obj_001f1#0000</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -23558,19 +23571,19 @@
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G26" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H26" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>44482</v>
+        <v>44687</v>
       </c>
       <c r="I26" s="96">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,AllTriggers)</f>
-        <v>1.3129819394805039E-2</v>
+        <v>1.2880534746287319E-2</v>
       </c>
       <c r="J26" s="51" t="str">
         <f>Contribution!Q26</f>
@@ -23580,7 +23593,7 @@
       <c r="L26" s="116"/>
       <c r="M26" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f7#0000</v>
+        <v>obj_001df#0000</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -23608,19 +23621,19 @@
       </c>
       <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G27" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H27" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>45579</v>
+        <v>45783</v>
       </c>
       <c r="I27" s="96">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,AllTriggers)</f>
-        <v>1.3630165342429961E-2</v>
+        <v>1.3333500141191914E-2</v>
       </c>
       <c r="J27" s="51" t="str">
         <f>Contribution!Q27</f>
@@ -23630,7 +23643,7 @@
       <c r="L27" s="116"/>
       <c r="M27" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001dc#0000</v>
+        <v>obj_001d2#0000</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -23658,19 +23671,19 @@
       </c>
       <c r="F28" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G28" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H28" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>46308</v>
+        <v>46513</v>
       </c>
       <c r="I28" s="96">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,AllTriggers)</f>
-        <v>1.3823884223126134E-2</v>
+        <v>1.350930575805105E-2</v>
       </c>
       <c r="J28" s="51" t="str">
         <f>Contribution!Q28</f>
@@ -23680,7 +23693,7 @@
       <c r="L28" s="116"/>
       <c r="M28" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fa#0000</v>
+        <v>obj_001c8#0000</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -23708,19 +23721,19 @@
       </c>
       <c r="F29" s="123">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G29" s="123">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H29" s="123">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>47406</v>
+        <v>47609</v>
       </c>
       <c r="I29" s="124">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
-        <v>1.401819388848642E-2</v>
+        <v>1.3685088691286927E-2</v>
       </c>
       <c r="J29" s="125" t="str">
         <f>Contribution!Q29</f>
@@ -23730,7 +23743,7 @@
       <c r="L29" s="116"/>
       <c r="M29" s="126" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ff#0000</v>
+        <v>obj_001d0#0000</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -26658,7 +26671,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="29" t="str">
         <f>_xll.qlOvernightIndex(,"Honix",0,Currency,Calendar,"act/365 (fixed)",YieldCurve,,Trigger)</f>
-        <v>obj_001cd#0000</v>
+        <v>obj_001e5#0000</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="79"/>
@@ -26764,26 +26777,26 @@
       </c>
       <c r="F6" s="42">
         <f t="shared" ref="F6:F29" si="0">EvaluationDate</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G6" s="42">
         <f>_xll.qlInterestRateIndexValueDate(M6,F6,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlInterestRateIndexMaturity(M6,G6,Trigger)</f>
-        <v>41926</v>
+        <v>42131</v>
       </c>
       <c r="I6" s="48">
         <f>_xll.qlIndexFixing(M6,F6,TRUE,AllTriggers)</f>
-        <v>6.0293532117783311E-4</v>
+        <v>6.0094017886758166E-4</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="50"/>
       <c r="L6" s="38"/>
       <c r="M6" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D6="ON","1D",D6),SettlementDays,Currency,Calendar,FixedLegTenor,"Following",FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020a#0000</v>
+        <v>obj_00207#0000</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="s">
@@ -26817,26 +26830,26 @@
       </c>
       <c r="F7" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G7" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H7" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41932</v>
+        <v>42137</v>
       </c>
       <c r="I7" s="44">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,AllTriggers)</f>
-        <v>6.0269366341146678E-4</v>
+        <v>6.0088985849021334E-4</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="38"/>
       <c r="M7" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D7="ON","1D",D7),SettlementDays,Currency,Calendar,FixedLegTenor,"Following",FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020b#0000</v>
+        <v>obj_00218#0000</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -26864,26 +26877,26 @@
       </c>
       <c r="F8" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41939</v>
+        <v>42144</v>
       </c>
       <c r="I8" s="44">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,AllTriggers)</f>
-        <v>6.0219345826823412E-4</v>
+        <v>6.0075767552864381E-4</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="38"/>
       <c r="M8" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D8="ON","1D",D8),SettlementDays,Currency,Calendar,FixedLegTenor,"Following",FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e7#0000</v>
+        <v>obj_001e6#0000</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -26911,19 +26924,19 @@
       </c>
       <c r="F9" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G9" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H9" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41956</v>
+        <v>42163</v>
       </c>
       <c r="I9" s="44">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,AllTriggers)</f>
-        <v>6.0000000445263081E-4</v>
+        <v>6.0000000346072981E-4</v>
       </c>
       <c r="J9" s="35" t="str">
         <f>Contribution!U9</f>
@@ -26933,7 +26946,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D9="ON","1D",D9),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00209#0000</v>
+        <v>obj_00212#0000</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -26961,19 +26974,19 @@
       </c>
       <c r="F10" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G10" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H10" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>41988</v>
+        <v>42191</v>
       </c>
       <c r="I10" s="44">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,AllTriggers)</f>
-        <v>5.9999999896931519E-4</v>
+        <v>5.9999999880199135E-4</v>
       </c>
       <c r="J10" s="35" t="str">
         <f>Contribution!U10</f>
@@ -26983,7 +26996,7 @@
       <c r="L10" s="38"/>
       <c r="M10" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D10="ON","1D",D10),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fb#0000</v>
+        <v>obj_0020d#0000</v>
       </c>
       <c r="N10" s="75"/>
       <c r="O10" s="79"/>
@@ -27011,19 +27024,19 @@
       </c>
       <c r="F11" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G11" s="45">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H11" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>42017</v>
+        <v>42222</v>
       </c>
       <c r="I11" s="44">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,AllTriggers)</f>
-        <v>7.0000000015819604E-4</v>
+        <v>7.0000000021814906E-4</v>
       </c>
       <c r="J11" s="35" t="str">
         <f>Contribution!U11</f>
@@ -27033,7 +27046,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D11="ON","1D",D11),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fc#0000</v>
+        <v>obj_001f7#0000</v>
       </c>
       <c r="N11" s="75"/>
       <c r="O11" s="79"/>
@@ -27061,19 +27074,19 @@
       </c>
       <c r="F12" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G12" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H12" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>42048</v>
+        <v>42254</v>
       </c>
       <c r="I12" s="44">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,AllTriggers)</f>
-        <v>9.9999999996365713E-4</v>
+        <v>1.0000000003047419E-3</v>
       </c>
       <c r="J12" s="35" t="str">
         <f>Contribution!U12</f>
@@ -27083,7 +27096,7 @@
       <c r="L12" s="38"/>
       <c r="M12" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D12="ON","1D",D12),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00208#0000</v>
+        <v>obj_00214#0000</v>
       </c>
       <c r="N12" s="75"/>
       <c r="O12" s="79"/>
@@ -27111,19 +27124,19 @@
       </c>
       <c r="F13" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G13" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H13" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
-        <v>42076</v>
+        <v>42283</v>
       </c>
       <c r="I13" s="44">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,AllTriggers)</f>
-        <v>1.1000000000058274E-3</v>
+        <v>1.1000000001936327E-3</v>
       </c>
       <c r="J13" s="35" t="str">
         <f>Contribution!U13</f>
@@ -27133,7 +27146,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D13="ON","1D",D13),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00204#0000</v>
+        <v>obj_001e7#0000</v>
       </c>
       <c r="N13" s="75"/>
       <c r="O13" s="79"/>
@@ -27161,19 +27174,19 @@
       </c>
       <c r="F14" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G14" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H14" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M14,G14,Trigger)</f>
-        <v>42107</v>
+        <v>42314</v>
       </c>
       <c r="I14" s="44">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,AllTriggers)</f>
-        <v>1.1999999999998065E-3</v>
+        <v>1.2000000001845242E-3</v>
       </c>
       <c r="J14" s="35" t="str">
         <f>Contribution!U14</f>
@@ -27183,7 +27196,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D14="ON","1D",D14),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f9#0000</v>
+        <v>obj_00211#0000</v>
       </c>
       <c r="N14" s="75"/>
       <c r="O14" s="79"/>
@@ -27211,26 +27224,26 @@
       </c>
       <c r="F15" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G15" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M15,F15,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H15" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M15,G15,Trigger)</f>
-        <v>42137</v>
+        <v>42345</v>
       </c>
       <c r="I15" s="44">
         <f>_xll.qlIndexFixing(M15,F15,TRUE,AllTriggers)</f>
-        <v>1.246618001132613E-3</v>
+        <v>1.2464284553288755E-3</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="38"/>
       <c r="M15" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D15="ON","1D",D15),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f0#0000</v>
+        <v>obj_001f5#0000</v>
       </c>
       <c r="N15" s="75"/>
       <c r="O15" s="79"/>
@@ -27258,26 +27271,26 @@
       </c>
       <c r="F16" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G16" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M16,F16,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H16" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M16,G16,Trigger)</f>
-        <v>42170</v>
+        <v>42375</v>
       </c>
       <c r="I16" s="44">
         <f>_xll.qlIndexFixing(M16,F16,TRUE,AllTriggers)</f>
-        <v>1.2699694896373662E-3</v>
+        <v>1.2656695102859494E-3</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="38"/>
       <c r="M16" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D16="ON","1D",D16),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020c#0000</v>
+        <v>obj_0021a#0000</v>
       </c>
       <c r="N16" s="75"/>
       <c r="O16" s="79"/>
@@ -27305,19 +27318,19 @@
       </c>
       <c r="F17" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G17" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M17,F17,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H17" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M17,G17,Trigger)</f>
-        <v>42198</v>
+        <v>42408</v>
       </c>
       <c r="I17" s="44">
         <f>_xll.qlIndexFixing(M17,F17,TRUE,AllTriggers)</f>
-        <v>1.3000000000005993E-3</v>
+        <v>1.2999999997491271E-3</v>
       </c>
       <c r="J17" s="35" t="str">
         <f>Contribution!U17</f>
@@ -27327,7 +27340,7 @@
       <c r="L17" s="38"/>
       <c r="M17" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D17="ON","1D",D17),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ef#0000</v>
+        <v>obj_0020e#0000</v>
       </c>
       <c r="N17" s="75"/>
       <c r="O17" s="79"/>
@@ -27355,26 +27368,26 @@
       </c>
       <c r="F18" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G18" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M18,F18,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H18" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M18,G18,Trigger)</f>
-        <v>42229</v>
+        <v>42436</v>
       </c>
       <c r="I18" s="44">
         <f>_xll.qlIndexFixing(M18,F18,TRUE,AllTriggers)</f>
-        <v>1.3590560416313182E-3</v>
+        <v>1.3550373127273862E-3</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="38"/>
       <c r="M18" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D18="ON","1D",D18),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e2#0000</v>
+        <v>obj_00203#0000</v>
       </c>
       <c r="N18" s="75"/>
       <c r="O18" s="79"/>
@@ -27402,26 +27415,26 @@
       </c>
       <c r="F19" s="45">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G19" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M19,F19,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H19" s="45">
         <f>_xll.qlInterestRateIndexMaturity(M19,G19,Trigger)</f>
-        <v>42261</v>
+        <v>42466</v>
       </c>
       <c r="I19" s="44">
         <f>_xll.qlIndexFixing(M19,F19,TRUE,AllTriggers)</f>
-        <v>1.4336569135474811E-3</v>
+        <v>1.4277277127489104E-3</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="38"/>
       <c r="M19" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D19="ON","1D",D19),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d7#0000</v>
+        <v>obj_00205#0000</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="79"/>
@@ -27449,19 +27462,19 @@
       </c>
       <c r="F20" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G20" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M20,F20,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H20" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M20,G20,Trigger)</f>
-        <v>42290</v>
+        <v>42496</v>
       </c>
       <c r="I20" s="96">
         <f>_xll.qlIndexFixing(M20,F20,TRUE,AllTriggers)</f>
-        <v>1.4999999999997808E-3</v>
+        <v>1.4999999998094101E-3</v>
       </c>
       <c r="J20" s="51" t="str">
         <f>Contribution!U20</f>
@@ -27471,7 +27484,7 @@
       <c r="L20" s="116"/>
       <c r="M20" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D20="ON","1D",D20),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d1#0000</v>
+        <v>obj_00210#0000</v>
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="79"/>
@@ -27499,15 +27512,15 @@
       </c>
       <c r="F21" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G21" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M21,F21,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H21" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M21,G21,Trigger)</f>
-        <v>42473</v>
+        <v>42681</v>
       </c>
       <c r="I21" s="97" t="e">
         <f>_xll.qlIndexFixing(M21,F21,TRUE,AllTriggers)</f>
@@ -27521,7 +27534,7 @@
       <c r="L21" s="116"/>
       <c r="M21" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D21="ON","1D",D21),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001df#0000</v>
+        <v>obj_0020f#0000</v>
       </c>
       <c r="N21" s="75"/>
       <c r="O21" s="79"/>
@@ -27549,15 +27562,15 @@
       </c>
       <c r="F22" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G22" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M22,F22,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H22" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M22,G22,Trigger)</f>
-        <v>42656</v>
+        <v>42863</v>
       </c>
       <c r="I22" s="97" t="e">
         <f>_xll.qlIndexFixing(M22,F22,TRUE,AllTriggers)</f>
@@ -27571,7 +27584,7 @@
       <c r="L22" s="116"/>
       <c r="M22" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D22="ON","1D",D22),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f8#0000</v>
+        <v>obj_00213#0000</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="79"/>
@@ -27599,15 +27612,15 @@
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G23" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H23" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
-        <v>43021</v>
+        <v>43227</v>
       </c>
       <c r="I23" s="97" t="e">
         <f>_xll.qlIndexFixing(M23,F23,TRUE,AllTriggers)</f>
@@ -27621,7 +27634,7 @@
       <c r="L23" s="116"/>
       <c r="M23" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D23="ON","1D",D23),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00201#0000</v>
+        <v>obj_001ed#0000</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -27649,15 +27662,15 @@
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G24" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H24" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>43388</v>
+        <v>43591</v>
       </c>
       <c r="I24" s="97" t="e">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,AllTriggers)</f>
@@ -27671,7 +27684,7 @@
       <c r="L24" s="116"/>
       <c r="M24" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D24="ON","1D",D24),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d6#0000</v>
+        <v>obj_00202#0000</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -27699,15 +27712,15 @@
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G25" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H25" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>43752</v>
+        <v>43957</v>
       </c>
       <c r="I25" s="97" t="e">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,AllTriggers)</f>
@@ -27721,7 +27734,7 @@
       <c r="L25" s="116"/>
       <c r="M25" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D25="ON","1D",D25),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e8#0000</v>
+        <v>obj_001ea#0000</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -27749,15 +27762,15 @@
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G26" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H26" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>44482</v>
+        <v>44687</v>
       </c>
       <c r="I26" s="97" t="e">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,AllTriggers)</f>
@@ -27771,7 +27784,7 @@
       <c r="L26" s="116"/>
       <c r="M26" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D26="ON","1D",D26),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001db#0000</v>
+        <v>obj_00216#0000</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -27799,15 +27812,15 @@
       </c>
       <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G27" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H27" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>45579</v>
+        <v>45783</v>
       </c>
       <c r="I27" s="97" t="e">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,AllTriggers)</f>
@@ -27821,7 +27834,7 @@
       <c r="L27" s="116"/>
       <c r="M27" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D27="ON","1D",D27),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fe#0000</v>
+        <v>obj_00217#0000</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -27849,15 +27862,15 @@
       </c>
       <c r="F28" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G28" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H28" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>46308</v>
+        <v>46513</v>
       </c>
       <c r="I28" s="97" t="e">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,AllTriggers)</f>
@@ -27871,7 +27884,7 @@
       <c r="L28" s="116"/>
       <c r="M28" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D28="ON","1D",D28),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ed#0000</v>
+        <v>obj_00215#0000</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -27899,15 +27912,15 @@
       </c>
       <c r="F29" s="123">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G29" s="123">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H29" s="123">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>47406</v>
+        <v>47609</v>
       </c>
       <c r="I29" s="98" t="e">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
@@ -27921,7 +27934,7 @@
       <c r="L29" s="116"/>
       <c r="M29" s="126" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D29="ON","1D",D29),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001dd#0000</v>
+        <v>obj_0020c#0000</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -31417,19 +31430,19 @@
       </c>
       <c r="F22" s="100">
         <f t="shared" ref="F22:F29" si="0">EvaluationDate</f>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G22" s="100">
         <f>_xll.qlInterestRateIndexValueDate(M22,F22,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H22" s="100">
         <f>_xll.qlInterestRateIndexMaturity(M22,G22,Trigger)</f>
-        <v>42656</v>
+        <v>42863</v>
       </c>
       <c r="I22" s="48">
         <f>_xll.qlIndexFixing(M22,F22,TRUE,AllTriggers)</f>
-        <v>8.0000000000381884E-3</v>
+        <v>8.1999999999981862E-3</v>
       </c>
       <c r="J22" s="49" t="str">
         <f>Contribution!Y22</f>
@@ -31439,7 +31452,7 @@
       <c r="L22" s="116"/>
       <c r="M22" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D22,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001bb#0000</v>
+        <v>obj_001cc#0000</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="77" t="s">
@@ -31473,19 +31486,19 @@
       </c>
       <c r="F23" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G23" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H23" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
-        <v>43021</v>
+        <v>43227</v>
       </c>
       <c r="I23" s="96">
         <f>_xll.qlIndexFixing(M23,F23,TRUE,AllTriggers)</f>
-        <v>1.210000000021233E-2</v>
+        <v>1.1199999999728079E-2</v>
       </c>
       <c r="J23" s="51" t="str">
         <f>Contribution!Y23</f>
@@ -31495,7 +31508,7 @@
       <c r="L23" s="116"/>
       <c r="M23" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00202#0000</v>
+        <v>obj_001f8#0000</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -31523,19 +31536,19 @@
       </c>
       <c r="F24" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G24" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H24" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>43388</v>
+        <v>43591</v>
       </c>
       <c r="I24" s="96">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,AllTriggers)</f>
-        <v>1.510000000000933E-2</v>
+        <v>1.3599999999989083E-2</v>
       </c>
       <c r="J24" s="51" t="str">
         <f>Contribution!Y24</f>
@@ -31545,7 +31558,7 @@
       <c r="L24" s="116"/>
       <c r="M24" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001eb#0000</v>
+        <v>obj_001f4#0000</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -31573,19 +31586,19 @@
       </c>
       <c r="F25" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G25" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H25" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>43752</v>
+        <v>43957</v>
       </c>
       <c r="I25" s="96">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,AllTriggers)</f>
-        <v>1.7199999999996208E-2</v>
+        <v>1.5300000000003137E-2</v>
       </c>
       <c r="J25" s="51" t="str">
         <f>Contribution!Y25</f>
@@ -31595,7 +31608,7 @@
       <c r="L25" s="116"/>
       <c r="M25" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c9#0000</v>
+        <v>obj_001d8#0000</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -31623,19 +31636,19 @@
       </c>
       <c r="F26" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G26" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H26" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>44482</v>
+        <v>44687</v>
       </c>
       <c r="I26" s="96">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,AllTriggers)</f>
-        <v>2.0200000000020962E-2</v>
+        <v>1.7899999999967865E-2</v>
       </c>
       <c r="J26" s="51" t="str">
         <f>Contribution!Y26</f>
@@ -31645,7 +31658,7 @@
       <c r="L26" s="116"/>
       <c r="M26" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e1#0000</v>
+        <v>obj_001ff#0000</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -31673,19 +31686,19 @@
       </c>
       <c r="F27" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G27" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H27" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>45579</v>
+        <v>45783</v>
       </c>
       <c r="I27" s="96">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,AllTriggers)</f>
-        <v>2.2899999999986854E-2</v>
+        <v>2.0100000000017368E-2</v>
       </c>
       <c r="J27" s="51" t="str">
         <f>Contribution!Y27</f>
@@ -31695,7 +31708,7 @@
       <c r="L27" s="116"/>
       <c r="M27" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c4#0000</v>
+        <v>obj_0020a#0000</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -31723,19 +31736,19 @@
       </c>
       <c r="F28" s="120">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G28" s="120">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H28" s="120">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>46308</v>
+        <v>46513</v>
       </c>
       <c r="I28" s="96">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,AllTriggers)</f>
-        <v>2.3999999999913077E-2</v>
+        <v>2.0900000000000904E-2</v>
       </c>
       <c r="J28" s="51" t="str">
         <f>Contribution!Y28</f>
@@ -31745,7 +31758,7 @@
       <c r="L28" s="116"/>
       <c r="M28" s="117" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e6#0000</v>
+        <v>obj_001e3#0000</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -31773,19 +31786,19 @@
       </c>
       <c r="F29" s="123">
         <f t="shared" si="0"/>
-        <v>41922</v>
+        <v>42129</v>
       </c>
       <c r="G29" s="123">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41925</v>
+        <v>42130</v>
       </c>
       <c r="H29" s="123">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>47406</v>
+        <v>47609</v>
       </c>
       <c r="I29" s="124">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
-        <v>2.4999999999954694E-2</v>
+        <v>2.1700000000074708E-2</v>
       </c>
       <c r="J29" s="125" t="str">
         <f>Contribution!Y29</f>
@@ -31795,7 +31808,7 @@
       <c r="L29" s="116"/>
       <c r="M29" s="126" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fd#0000</v>
+        <v>obj_001fa#0000</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>

--- a/QuantLibXL/Data2/XLS/HKD/HKD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD/HKD_MxContributor.xlsx
@@ -430,7 +430,7 @@
     <numFmt numFmtId="171" formatCode="0.E+00"/>
     <numFmt numFmtId="172" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +530,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -1099,12 +1105,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1165,6 +1165,12 @@
     </xf>
     <xf numFmtId="172" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1488,6 +1494,8 @@
 HKD6M1X7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG15" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
         <v>0.23686000000000001</v>
         <stp/>
@@ -2019,6 +2027,8 @@
         <stp xml:space="preserve">	HKD3M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE21" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
         <v>2.0100000000000002</v>
         <stp/>
@@ -2414,7 +2424,7 @@
       <sheetData sheetId="0">
         <row r="22">
           <cell r="D22">
-            <v>3</v>
+            <v>7</v>
           </cell>
         </row>
       </sheetData>
@@ -2903,9 +2913,7 @@
       <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60">
-        <v>42129.442453703705</v>
-      </c>
+      <c r="D4" s="60"/>
       <c r="E4" s="59"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2970,7 +2978,7 @@
       </c>
       <c r="D6" s="61">
         <f>[1]!TriggerCounter</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="2"/>
@@ -8361,7 +8369,7 @@
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
     </row>
-    <row r="21" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
         <v>48</v>
       </c>
@@ -8429,11 +8437,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS18MD=</v>
       </c>
-      <c r="V21" s="109">
+      <c r="V21" s="130">
         <f>$V$20</f>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W21" s="109">
+      <c r="W21" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -8502,7 +8510,7 @@
       <c r="BL21" s="2"/>
       <c r="BM21" s="2"/>
     </row>
-    <row r="22" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="106" t="s">
         <v>24</v>
       </c>
@@ -8529,7 +8537,7 @@
       <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="128" t="str">
+      <c r="H22" s="126" t="str">
         <f t="shared" ref="H22:H29" si="15">A22</f>
         <v>2Y</v>
       </c>
@@ -8584,11 +8592,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS2YD=</v>
       </c>
-      <c r="V22" s="109">
+      <c r="V22" s="130">
         <f t="shared" ref="V22:V29" si="17">$V$20</f>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W22" s="109">
+      <c r="W22" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -8681,7 +8689,7 @@
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
     </row>
-    <row r="23" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="106" t="s">
         <v>25</v>
       </c>
@@ -8708,7 +8716,7 @@
       <c r="G23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="128" t="str">
+      <c r="H23" s="126" t="str">
         <f t="shared" si="15"/>
         <v>3Y</v>
       </c>
@@ -8764,11 +8772,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS3YD=</v>
       </c>
-      <c r="V23" s="109">
+      <c r="V23" s="130">
         <f t="shared" si="17"/>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W23" s="109">
+      <c r="W23" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -8861,7 +8869,7 @@
       <c r="BL23" s="2"/>
       <c r="BM23" s="2"/>
     </row>
-    <row r="24" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="106" t="s">
         <v>26</v>
       </c>
@@ -8888,7 +8896,7 @@
       <c r="G24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="128" t="str">
+      <c r="H24" s="126" t="str">
         <f t="shared" si="15"/>
         <v>4Y</v>
       </c>
@@ -8944,11 +8952,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS4YD=</v>
       </c>
-      <c r="V24" s="109">
+      <c r="V24" s="130">
         <f t="shared" si="17"/>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W24" s="109">
+      <c r="W24" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -9041,7 +9049,7 @@
       <c r="BL24" s="2"/>
       <c r="BM24" s="2"/>
     </row>
-    <row r="25" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="106" t="s">
         <v>27</v>
       </c>
@@ -9068,7 +9076,7 @@
       <c r="G25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="128" t="str">
+      <c r="H25" s="126" t="str">
         <f t="shared" si="15"/>
         <v>5Y</v>
       </c>
@@ -9124,11 +9132,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS5YD=</v>
       </c>
-      <c r="V25" s="109">
+      <c r="V25" s="130">
         <f t="shared" si="17"/>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W25" s="109">
+      <c r="W25" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -9221,7 +9229,7 @@
       <c r="BL25" s="2"/>
       <c r="BM25" s="2"/>
     </row>
-    <row r="26" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="106" t="s">
         <v>28</v>
       </c>
@@ -9248,7 +9256,7 @@
       <c r="G26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="128" t="str">
+      <c r="H26" s="126" t="str">
         <f t="shared" si="15"/>
         <v>7Y</v>
       </c>
@@ -9304,11 +9312,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS7YD=</v>
       </c>
-      <c r="V26" s="109">
+      <c r="V26" s="130">
         <f t="shared" si="17"/>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W26" s="109">
+      <c r="W26" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -9401,7 +9409,7 @@
       <c r="BL26" s="2"/>
       <c r="BM26" s="2"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
         <v>29</v>
       </c>
@@ -9428,7 +9436,7 @@
       <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="128" t="str">
+      <c r="H27" s="126" t="str">
         <f t="shared" si="15"/>
         <v>10Y</v>
       </c>
@@ -9484,11 +9492,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS10YD=</v>
       </c>
-      <c r="V27" s="109">
+      <c r="V27" s="130">
         <f t="shared" si="17"/>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W27" s="109">
+      <c r="W27" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -9581,7 +9589,7 @@
       <c r="BL27" s="2"/>
       <c r="BM27" s="2"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" ht="12" x14ac:dyDescent="0.25">
       <c r="A28" s="106" t="s">
         <v>30</v>
       </c>
@@ -9608,7 +9616,7 @@
       <c r="G28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="128" t="str">
+      <c r="H28" s="126" t="str">
         <f t="shared" si="15"/>
         <v>12Y</v>
       </c>
@@ -9664,11 +9672,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS12YD=</v>
       </c>
-      <c r="V28" s="109">
+      <c r="V28" s="130">
         <f t="shared" si="17"/>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W28" s="109">
+      <c r="W28" s="130">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -9761,7 +9769,7 @@
       <c r="BL28" s="2"/>
       <c r="BM28" s="2"/>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="107" t="s">
         <v>31</v>
       </c>
@@ -9788,7 +9796,7 @@
       <c r="G29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="129" t="str">
+      <c r="H29" s="127" t="str">
         <f t="shared" si="15"/>
         <v>15Y</v>
       </c>
@@ -9844,11 +9852,11 @@
         <f t="shared" si="14"/>
         <v>HKDOIS15YD=</v>
       </c>
-      <c r="V29" s="110">
+      <c r="V29" s="131">
         <f t="shared" si="17"/>
         <v>0.14999999998094102</v>
       </c>
-      <c r="W29" s="110">
+      <c r="W29" s="131">
         <f t="shared" si="10"/>
         <v>0.14999999998094102</v>
       </c>
@@ -14150,7 +14158,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="78" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D6="ON",D6="TN",D6="SN"),"1D",IF(D6="SW","1W",D6)),0,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00219#0000</v>
+        <v>obj_0021a#0001</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="b">
@@ -14206,7 +14214,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D7="ON",D7="TN",D7="SN"),"1D",IF(D7="SW","1W",D7)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00209#0000</v>
+        <v>obj_00214#0001</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -14256,7 +14264,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D8="ON",D8="TN",D8="SN"),"1D",IF(D8="SW","1W",D8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001fb#0000</v>
+        <v>obj_001f0#0001</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -14306,7 +14314,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="108" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D9="ON",D9="TN",D9="SN"),"1D",IF(D9="SW","1W",D9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001e2#0000</v>
+        <v>obj_001e4#0001</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -14392,7 +14400,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="78" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D11,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c3#0000</v>
+        <v>obj_00200#0001</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="77" t="s">
@@ -14445,7 +14453,7 @@
       <c r="L12" s="38"/>
       <c r="M12" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D12,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ee#0000</v>
+        <v>obj_001e7#0001</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="79"/>
@@ -14492,7 +14500,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D13,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c5#0000</v>
+        <v>obj_001c3#0001</v>
       </c>
       <c r="N13" s="38"/>
       <c r="O13" s="79"/>
@@ -14542,7 +14550,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D14,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ce#0000</v>
+        <v>obj_001f9#0001</v>
       </c>
       <c r="N14" s="38"/>
       <c r="O14" s="79"/>
@@ -14589,7 +14597,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D15,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d4#0000</v>
+        <v>obj_001f2#0001</v>
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="79"/>
@@ -14636,7 +14644,7 @@
       <c r="L16" s="38"/>
       <c r="M16" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D16,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020b#0000</v>
+        <v>obj_001ce#0001</v>
       </c>
       <c r="N16" s="38"/>
       <c r="O16" s="79"/>
@@ -14686,7 +14694,7 @@
       <c r="L17" s="38"/>
       <c r="M17" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D17,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c6#0000</v>
+        <v>obj_001d3#0001</v>
       </c>
       <c r="N17" s="75"/>
       <c r="O17" s="79"/>
@@ -14733,7 +14741,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D18,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e9#0000</v>
+        <v>obj_001fa#0001</v>
       </c>
       <c r="N18" s="75"/>
       <c r="O18" s="79"/>
@@ -14780,7 +14788,7 @@
       <c r="L19" s="38"/>
       <c r="M19" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D19,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001db#0000</v>
+        <v>obj_00204#0001</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="79"/>
@@ -14830,7 +14838,7 @@
       <c r="L20" s="38"/>
       <c r="M20" s="27" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D20,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001eb#0000</v>
+        <v>obj_001c8#0001</v>
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="79"/>
@@ -14853,18 +14861,18 @@
       <c r="D21" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M21,F21,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H21" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M21,G21,Trigger)</f>
         <v>42681</v>
       </c>
@@ -14874,10 +14882,10 @@
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="117" t="str">
+      <c r="L21" s="114"/>
+      <c r="M21" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D21,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f3#0000</v>
+        <v>obj_00211#0001</v>
       </c>
       <c r="N21" s="75"/>
       <c r="O21" s="79"/>
@@ -14900,18 +14908,18 @@
       <c r="D22" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M22,F22,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H22" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M22,G22,Trigger)</f>
         <v>42863</v>
       </c>
@@ -14924,10 +14932,10 @@
         <v>HKD1M2Y=</v>
       </c>
       <c r="K22" s="51"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117" t="str">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D22,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00208#0000</v>
+        <v>obj_001e2#0001</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="79"/>
@@ -14950,18 +14958,18 @@
       <c r="D23" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
         <v>43227</v>
       </c>
@@ -14974,10 +14982,10 @@
         <v>HKD1M3Y=</v>
       </c>
       <c r="K23" s="51"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117" t="str">
+      <c r="L23" s="114"/>
+      <c r="M23" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ca#0000</v>
+        <v>obj_001c4#0001</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -15000,18 +15008,18 @@
       <c r="D24" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
         <v>43591</v>
       </c>
@@ -15024,10 +15032,10 @@
         <v>HKD1M4Y=</v>
       </c>
       <c r="K24" s="51"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117" t="str">
+      <c r="L24" s="114"/>
+      <c r="M24" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001de#0000</v>
+        <v>obj_001c6#0001</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -15050,18 +15058,18 @@
       <c r="D25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
         <v>43957</v>
       </c>
@@ -15074,10 +15082,10 @@
         <v>HKD1M5Y=</v>
       </c>
       <c r="K25" s="51"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="117" t="str">
+      <c r="L25" s="114"/>
+      <c r="M25" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f0#0000</v>
+        <v>obj_001eb#0001</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -15100,18 +15108,18 @@
       <c r="D26" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="120">
+      <c r="F26" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
         <v>44687</v>
       </c>
@@ -15124,10 +15132,10 @@
         <v>HKD1M7Y=</v>
       </c>
       <c r="K26" s="51"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117" t="str">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e1#0000</v>
+        <v>obj_001f3#0001</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -15150,18 +15158,18 @@
       <c r="D27" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
         <v>45783</v>
       </c>
@@ -15174,10 +15182,10 @@
         <v>HKD1M10Y=</v>
       </c>
       <c r="K27" s="51"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117" t="str">
+      <c r="L27" s="114"/>
+      <c r="M27" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00201#0000</v>
+        <v>obj_001d8#0001</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -15200,18 +15208,18 @@
       <c r="D28" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
         <v>46513</v>
       </c>
@@ -15224,10 +15232,10 @@
         <v>HKD1M12Y=</v>
       </c>
       <c r="K28" s="51"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117" t="str">
+      <c r="L28" s="114"/>
+      <c r="M28" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001da#0000</v>
+        <v>obj_001dd#0001</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -15250,18 +15258,18 @@
       <c r="D29" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="121">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G29" s="123">
+      <c r="G29" s="121">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="121">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
         <v>47609</v>
       </c>
@@ -15269,15 +15277,15 @@
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
         <v>2.147285741941456E-2</v>
       </c>
-      <c r="J29" s="125" t="str">
+      <c r="J29" s="123" t="str">
         <f>Contribution!I29</f>
         <v>HKD1M15Y=</v>
       </c>
-      <c r="K29" s="125"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="126" t="str">
+      <c r="K29" s="123"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="124" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001dd#0000</v>
+        <v>obj_00217#0001</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -18266,8 +18274,8 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
         <v>39</v>
@@ -18316,8 +18324,8 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
@@ -18348,7 +18356,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="78" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D6="ON",D6="TN",D6="SN"),"1D",IF(D6="SW","1W",D6)),0,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001d6#0000</v>
+        <v>obj_001ff#0001</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="b">
@@ -18372,8 +18380,8 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="18" t="s">
         <v>78</v>
       </c>
@@ -18404,7 +18412,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D7="ON",D7="TN",D7="SN"),"1D",IF(D7="SW","1W",D7)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001dc#0000</v>
+        <v>obj_0020f#0001</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -18422,8 +18430,8 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="18" t="s">
         <v>16</v>
       </c>
@@ -18454,7 +18462,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D8="ON",D8="TN",D8="SN"),"1D",IF(D8="SW","1W",D8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001ef#0000</v>
+        <v>obj_001c9#0001</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -18472,8 +18480,8 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
@@ -18504,7 +18512,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D9="ON",D9="TN",D9="SN"),"1D",IF(D9="SW","1W",D9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001f9#0000</v>
+        <v>obj_00212#0001</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -18522,8 +18530,8 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
@@ -18551,7 +18559,7 @@
       <c r="L10" s="38"/>
       <c r="M10" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D10="ON",D10="TN",D10="SN"),"1D",IF(D10="SW","1W",D10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c4#0000</v>
+        <v>obj_0020c#0001</v>
       </c>
       <c r="N10" s="75"/>
       <c r="O10" s="79"/>
@@ -18569,8 +18577,8 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
@@ -18601,7 +18609,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="29" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D11="ON",D11="TN",D11="SN"),"1D",IF(D11="SW","1W",D11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001cd#0000</v>
+        <v>obj_00202#0001</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="79"/>
@@ -18619,10 +18627,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
-      <c r="B12" s="113">
+      <c r="B12" s="111">
         <v>1</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -18635,7 +18643,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G12,Trigger)</f>
         <v>42163</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B12&amp;"M","mf",TRUE)</f>
         <v>42163</v>
       </c>
@@ -18670,10 +18678,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
-      <c r="B13" s="113">
+      <c r="B13" s="111">
         <v>2</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -18686,7 +18694,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G13,Trigger)</f>
         <v>42192</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B13&amp;"M","mf",TRUE)</f>
         <v>42192</v>
       </c>
@@ -18718,10 +18726,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
-      <c r="B14" s="113">
+      <c r="B14" s="111">
         <v>3</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -18734,7 +18742,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G14,Trigger)</f>
         <v>42223</v>
       </c>
-      <c r="G14" s="120">
+      <c r="G14" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B14&amp;"M","mf",TRUE)</f>
         <v>42223</v>
       </c>
@@ -18769,10 +18777,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="113">
+      <c r="B15" s="111">
         <v>4</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -18785,7 +18793,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G15,Trigger)</f>
         <v>42254</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B15&amp;"M","mf",TRUE)</f>
         <v>42254</v>
       </c>
@@ -18817,10 +18825,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
-      <c r="B16" s="113">
+      <c r="B16" s="111">
         <v>5</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -18833,7 +18841,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G16,Trigger)</f>
         <v>42284</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B16&amp;"M","mf",TRUE)</f>
         <v>42284</v>
       </c>
@@ -18865,10 +18873,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
-      <c r="B17" s="113">
+      <c r="B17" s="111">
         <v>6</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -18881,7 +18889,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17,Trigger)</f>
         <v>42317</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B17&amp;"M","mf",TRUE)</f>
         <v>42317</v>
       </c>
@@ -18916,10 +18924,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
-      <c r="B18" s="113">
+      <c r="B18" s="111">
         <v>7</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -18932,7 +18940,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18,Trigger)</f>
         <v>42345</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B18&amp;"M","mf",TRUE)</f>
         <v>42345</v>
       </c>
@@ -18964,10 +18972,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
-      <c r="B19" s="113">
+      <c r="B19" s="111">
         <v>8</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -18980,7 +18988,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19,Trigger)</f>
         <v>42376</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B19&amp;"M","mf",TRUE)</f>
         <v>42376</v>
       </c>
@@ -19020,8 +19028,8 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="102" t="s">
         <v>23</v>
       </c>
@@ -19049,10 +19057,10 @@
         <v>HKD3M1Y=</v>
       </c>
       <c r="K20" s="49"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="117" t="str">
+      <c r="L20" s="114"/>
+      <c r="M20" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D20,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d5#0000</v>
+        <v>obj_00203#0001</v>
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="77" t="s">
@@ -19076,23 +19084,23 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M21,F21,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H21" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M21,G21,Trigger)</f>
         <v>42681</v>
       </c>
@@ -19105,10 +19113,10 @@
         <v>HKD3M18M=</v>
       </c>
       <c r="K21" s="51"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="117" t="str">
+      <c r="L21" s="114"/>
+      <c r="M21" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D21,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e4#0000</v>
+        <v>obj_001e6#0001</v>
       </c>
       <c r="N21" s="75"/>
       <c r="O21" s="79"/>
@@ -19126,23 +19134,23 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M22,F22,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H22" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M22,G22,Trigger)</f>
         <v>42863</v>
       </c>
@@ -19155,10 +19163,10 @@
         <v>HKD3M2Y=</v>
       </c>
       <c r="K22" s="51"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117" t="str">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D22,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e0#0000</v>
+        <v>obj_001ee#0001</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="79"/>
@@ -19176,23 +19184,23 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
         <v>43227</v>
       </c>
@@ -19205,10 +19213,10 @@
         <v>HKD3M3Y=</v>
       </c>
       <c r="K23" s="51"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117" t="str">
+      <c r="L23" s="114"/>
+      <c r="M23" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fe#0000</v>
+        <v>obj_001e8#0001</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -19226,23 +19234,23 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
         <v>43591</v>
       </c>
@@ -19255,10 +19263,10 @@
         <v>HKD3M4Y=</v>
       </c>
       <c r="K24" s="51"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117" t="str">
+      <c r="L24" s="114"/>
+      <c r="M24" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00206#0000</v>
+        <v>obj_001d9#0001</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -19276,23 +19284,23 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
         <v>43957</v>
       </c>
@@ -19305,10 +19313,10 @@
         <v>HKD3M5Y=</v>
       </c>
       <c r="K25" s="51"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="117" t="str">
+      <c r="L25" s="114"/>
+      <c r="M25" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e8#0000</v>
+        <v>obj_00205#0001</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -19326,23 +19334,23 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="120">
+      <c r="F26" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
         <v>44687</v>
       </c>
@@ -19355,10 +19363,10 @@
         <v>HKD3M7Y=</v>
       </c>
       <c r="K26" s="51"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117" t="str">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d9#0000</v>
+        <v>obj_001d5#0001</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -19376,23 +19384,23 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
         <v>45783</v>
       </c>
@@ -19405,10 +19413,10 @@
         <v>HKD3M10Y=</v>
       </c>
       <c r="K27" s="51"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117" t="str">
+      <c r="L27" s="114"/>
+      <c r="M27" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c7#0000</v>
+        <v>obj_001db#0001</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -19426,23 +19434,23 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
         <v>46513</v>
       </c>
@@ -19455,10 +19463,10 @@
         <v>HKD3M12Y=</v>
       </c>
       <c r="K28" s="51"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117" t="str">
+      <c r="L28" s="114"/>
+      <c r="M28" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ec#0000</v>
+        <v>obj_001d6#0001</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -19476,39 +19484,39 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="121">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G29" s="123">
+      <c r="G29" s="121">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="121">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
         <v>47609</v>
       </c>
-      <c r="I29" s="124">
+      <c r="I29" s="122">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
         <v>2.1700000000074708E-2</v>
       </c>
-      <c r="J29" s="125" t="str">
+      <c r="J29" s="123" t="str">
         <f>Contribution!M29</f>
         <v>HKD3M15Y=</v>
       </c>
-      <c r="K29" s="125"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="126" t="str">
+      <c r="K29" s="123"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="124" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d3#0000</v>
+        <v>obj_001d4#0001</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -22483,8 +22491,8 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
         <v>39</v>
@@ -22533,8 +22541,8 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
@@ -22565,7 +22573,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="78" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D6="ON",D6="TN",D6="SN"),"1D",IF(D6="SW","1W",D6)),0,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001d1#0000</v>
+        <v>obj_001c5#0001</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="b">
@@ -22589,8 +22597,8 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="18" t="s">
         <v>78</v>
       </c>
@@ -22621,7 +22629,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D7="ON",D7="TN",D7="SN"),"1D",IF(D7="SW","1W",D7)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00204#0000</v>
+        <v>obj_00213#0001</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -22639,8 +22647,8 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="18" t="s">
         <v>16</v>
       </c>
@@ -22671,7 +22679,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D8="ON",D8="TN",D8="SN"),"1D",IF(D8="SW","1W",D8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001cb#0000</v>
+        <v>obj_001ed#0001</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -22689,8 +22697,8 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
@@ -22721,7 +22729,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D9="ON",D9="TN",D9="SN"),"1D",IF(D9="SW","1W",D9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00200#0000</v>
+        <v>obj_001ec#0001</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -22739,8 +22747,8 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
@@ -22771,7 +22779,7 @@
       <c r="L10" s="38"/>
       <c r="M10" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D10="ON",D10="TN",D10="SN"),"1D",IF(D10="SW","1W",D10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001f6#0000</v>
+        <v>obj_001d1#0001</v>
       </c>
       <c r="N10" s="75"/>
       <c r="O10" s="79"/>
@@ -22789,8 +22797,8 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="18" t="s">
         <v>19</v>
       </c>
@@ -22821,7 +22829,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D11="ON",D11="TN",D11="SN"),"1D",IF(D11="SW","1W",D11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001d7#0000</v>
+        <v>obj_0020e#0001</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="79"/>
@@ -22839,8 +22847,8 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
@@ -22851,7 +22859,7 @@
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
         <v>42130</v>
       </c>
@@ -22871,7 +22879,7 @@
       <c r="L12" s="38"/>
       <c r="M12" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D12="ON",D12="TN",D12="SN"),"1D",IF(D12="SW","1W",D12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001f2#0000</v>
+        <v>obj_001df#0001</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="79"/>
@@ -22889,8 +22897,8 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
@@ -22901,7 +22909,7 @@
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
         <v>42130</v>
       </c>
@@ -22921,7 +22929,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="27" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D13="ON",D13="TN",D13="SN"),"1D",IF(D13="SW","1W",D13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001fd#0000</v>
+        <v>obj_00206#0001</v>
       </c>
       <c r="N13" s="38"/>
       <c r="O13" s="79"/>
@@ -22939,8 +22947,8 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="19" t="s">
         <v>14</v>
       </c>
@@ -22951,7 +22959,7 @@
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G14" s="123">
+      <c r="G14" s="121">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
         <v>42130</v>
       </c>
@@ -22971,7 +22979,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="29" t="str">
         <f>_xll.qlIborIndex(,"Hibor",IF(OR(D14="ON",D14="TN",D14="SN"),"1D",IF(D14="SW","1W",D14)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_001c9#0000</v>
+        <v>obj_001fe#0001</v>
       </c>
       <c r="N14" s="38"/>
       <c r="O14" s="79"/>
@@ -22989,10 +22997,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="112">
+      <c r="B15" s="110">
         <v>1</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="110" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -23040,10 +23048,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
-      <c r="B16" s="113">
+      <c r="B16" s="111">
         <v>2</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -23056,7 +23064,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G16,Trigger)</f>
         <v>42192</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B16&amp;"M","mf",TRUE)</f>
         <v>42192</v>
       </c>
@@ -23091,10 +23099,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
-      <c r="B17" s="113">
+      <c r="B17" s="111">
         <v>3</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -23107,7 +23115,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17,Trigger)</f>
         <v>42223</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B17&amp;"M","mf",TRUE)</f>
         <v>42223</v>
       </c>
@@ -23142,10 +23150,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
-      <c r="B18" s="113">
+      <c r="B18" s="111">
         <v>4</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -23158,7 +23166,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18,Trigger)</f>
         <v>42254</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B18&amp;"M","mf",TRUE)</f>
         <v>42254</v>
       </c>
@@ -23193,10 +23201,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
-      <c r="B19" s="113">
+      <c r="B19" s="111">
         <v>5</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -23209,7 +23217,7 @@
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19,Trigger)</f>
         <v>42284</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B19&amp;"M","mf",TRUE)</f>
         <v>42284</v>
       </c>
@@ -23244,10 +23252,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="118">
+      <c r="B20" s="116">
         <v>6</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="103" t="s">
@@ -23256,15 +23264,15 @@
       <c r="E20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="118">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20,Trigger)</f>
         <v>42317</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B20&amp;"M","mf",TRUE)</f>
         <v>42317</v>
       </c>
-      <c r="H20" s="120">
+      <c r="H20" s="118">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
         <v>42499</v>
       </c>
@@ -23277,7 +23285,7 @@
         <v>HKD6M6X12F=</v>
       </c>
       <c r="K20" s="51"/>
-      <c r="L20" s="116"/>
+      <c r="L20" s="114"/>
       <c r="M20" s="75"/>
       <c r="N20" s="75"/>
       <c r="O20" s="79"/>
@@ -23295,10 +23303,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="118">
+      <c r="B21" s="116">
         <v>12</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -23307,15 +23315,15 @@
       <c r="E21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="118">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21,Trigger)</f>
         <v>42499</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="118">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B21&amp;"M","mf",TRUE)</f>
         <v>42499</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H21" s="118">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
         <v>42683</v>
       </c>
@@ -23328,7 +23336,7 @@
         <v>HKD6M12X18F=</v>
       </c>
       <c r="K21" s="51"/>
-      <c r="L21" s="116"/>
+      <c r="L21" s="114"/>
       <c r="M21" s="75"/>
       <c r="N21" s="75"/>
       <c r="O21" s="79"/>
@@ -23346,10 +23354,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
-      <c r="B22" s="121">
+      <c r="B22" s="119">
         <v>18</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="112" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="104" t="s">
@@ -23358,28 +23366,28 @@
       <c r="E22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="123">
+      <c r="F22" s="121">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22,Trigger)</f>
         <v>42681</v>
       </c>
-      <c r="G22" s="123">
+      <c r="G22" s="121">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","following",FALSE,Trigger),B22&amp;"M","mf",TRUE)</f>
         <v>42681</v>
       </c>
-      <c r="H22" s="123">
+      <c r="H22" s="121">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
         <v>42863</v>
       </c>
-      <c r="I22" s="124">
+      <c r="I22" s="122">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,AllTriggers)</f>
         <v>1.4000000000000051E-2</v>
       </c>
-      <c r="J22" s="125" t="str">
+      <c r="J22" s="123" t="str">
         <f>Contribution!Q22</f>
         <v>HKD6M18X24F=</v>
       </c>
-      <c r="K22" s="125"/>
-      <c r="L22" s="116"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="114"/>
       <c r="M22" s="76" t="s">
         <v>38</v>
       </c>
@@ -23405,23 +23413,23 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
         <v>43227</v>
       </c>
@@ -23434,10 +23442,10 @@
         <v>HKD6M3Y=</v>
       </c>
       <c r="K23" s="51"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117" t="str">
+      <c r="L23" s="114"/>
+      <c r="M23" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fc#0000</v>
+        <v>obj_001f5#0001</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="77" t="s">
@@ -23461,23 +23469,23 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
         <v>43591</v>
       </c>
@@ -23490,10 +23498,10 @@
         <v>HKD6M4Y=</v>
       </c>
       <c r="K24" s="51"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117" t="str">
+      <c r="L24" s="114"/>
+      <c r="M24" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001cf#0000</v>
+        <v>obj_0020d#0001</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -23511,23 +23519,23 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
         <v>43957</v>
       </c>
@@ -23540,10 +23548,10 @@
         <v>HKD6M5Y=</v>
       </c>
       <c r="K25" s="51"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="117" t="str">
+      <c r="L25" s="114"/>
+      <c r="M25" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f1#0000</v>
+        <v>obj_001ef#0001</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -23561,23 +23569,23 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="120">
+      <c r="F26" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
         <v>44687</v>
       </c>
@@ -23590,10 +23598,10 @@
         <v>HKD6M7Y=</v>
       </c>
       <c r="K26" s="51"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117" t="str">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001df#0000</v>
+        <v>obj_001ea#0001</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -23611,23 +23619,23 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
         <v>45783</v>
       </c>
@@ -23640,10 +23648,10 @@
         <v>HKD6M10Y=</v>
       </c>
       <c r="K27" s="51"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117" t="str">
+      <c r="L27" s="114"/>
+      <c r="M27" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d2#0000</v>
+        <v>obj_001e9#0001</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -23661,23 +23669,23 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
         <v>46513</v>
       </c>
@@ -23690,10 +23698,10 @@
         <v>HKD6M12Y=</v>
       </c>
       <c r="K28" s="51"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117" t="str">
+      <c r="L28" s="114"/>
+      <c r="M28" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001c8#0000</v>
+        <v>obj_00201#0001</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -23711,39 +23719,39 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="121">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G29" s="123">
+      <c r="G29" s="121">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="121">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
         <v>47609</v>
       </c>
-      <c r="I29" s="124">
+      <c r="I29" s="122">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
         <v>1.3685088691286927E-2</v>
       </c>
-      <c r="J29" s="125" t="str">
+      <c r="J29" s="123" t="str">
         <f>Contribution!Q29</f>
         <v>HKD6M15Y=</v>
       </c>
-      <c r="K29" s="125"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="126" t="str">
+      <c r="K29" s="123"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="124" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d0#0000</v>
+        <v>obj_00209#0001</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -26671,7 +26679,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="29" t="str">
         <f>_xll.qlOvernightIndex(,"Honix",0,Currency,Calendar,"act/365 (fixed)",YieldCurve,,Trigger)</f>
-        <v>obj_001e5#0000</v>
+        <v>obj_001c7#0001</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="79"/>
@@ -26794,9 +26802,9 @@
       <c r="J6" s="49"/>
       <c r="K6" s="50"/>
       <c r="L6" s="38"/>
-      <c r="M6" s="117" t="str">
+      <c r="M6" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D6="ON","1D",D6),SettlementDays,Currency,Calendar,FixedLegTenor,"Following",FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00207#0000</v>
+        <v>obj_001e0#0001</v>
       </c>
       <c r="N6" s="75"/>
       <c r="O6" s="77" t="s">
@@ -26825,7 +26833,7 @@
       <c r="D7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="45">
@@ -26847,9 +26855,9 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="38"/>
-      <c r="M7" s="117" t="str">
+      <c r="M7" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D7="ON","1D",D7),SettlementDays,Currency,Calendar,FixedLegTenor,"Following",FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00218#0000</v>
+        <v>obj_00216#0001</v>
       </c>
       <c r="N7" s="75"/>
       <c r="O7" s="79"/>
@@ -26872,7 +26880,7 @@
       <c r="D8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="45">
@@ -26894,9 +26902,9 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="38"/>
-      <c r="M8" s="117" t="str">
+      <c r="M8" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D8="ON","1D",D8),SettlementDays,Currency,Calendar,FixedLegTenor,"Following",FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e6#0000</v>
+        <v>obj_001d0#0001</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="79"/>
@@ -26919,7 +26927,7 @@
       <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="45">
@@ -26944,9 +26952,9 @@
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="38"/>
-      <c r="M9" s="117" t="str">
+      <c r="M9" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D9="ON","1D",D9),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00212#0000</v>
+        <v>obj_001cf#0001</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="79"/>
@@ -26969,7 +26977,7 @@
       <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="45">
@@ -26994,9 +27002,9 @@
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="38"/>
-      <c r="M10" s="117" t="str">
+      <c r="M10" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D10="ON","1D",D10),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020d#0000</v>
+        <v>obj_001f6#0001</v>
       </c>
       <c r="N10" s="75"/>
       <c r="O10" s="79"/>
@@ -27019,7 +27027,7 @@
       <c r="D11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="45">
@@ -27044,9 +27052,9 @@
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="117" t="str">
+      <c r="M11" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D11="ON","1D",D11),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f7#0000</v>
+        <v>obj_001d7#0001</v>
       </c>
       <c r="N11" s="75"/>
       <c r="O11" s="79"/>
@@ -27069,14 +27077,14 @@
       <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27094,9 +27102,9 @@
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="38"/>
-      <c r="M12" s="117" t="str">
+      <c r="M12" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D12="ON","1D",D12),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00214#0000</v>
+        <v>obj_001da#0001</v>
       </c>
       <c r="N12" s="75"/>
       <c r="O12" s="79"/>
@@ -27119,14 +27127,14 @@
       <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="119" t="s">
+      <c r="E13" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27144,9 +27152,9 @@
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="38"/>
-      <c r="M13" s="117" t="str">
+      <c r="M13" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D13="ON","1D",D13),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e7#0000</v>
+        <v>obj_001de#0001</v>
       </c>
       <c r="N13" s="75"/>
       <c r="O13" s="79"/>
@@ -27169,14 +27177,14 @@
       <c r="D14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G14" s="120">
+      <c r="G14" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27194,9 +27202,9 @@
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="38"/>
-      <c r="M14" s="117" t="str">
+      <c r="M14" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D14="ON","1D",D14),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00211#0000</v>
+        <v>obj_001fd#0001</v>
       </c>
       <c r="N14" s="75"/>
       <c r="O14" s="79"/>
@@ -27219,14 +27227,14 @@
       <c r="D15" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M15,F15,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27241,9 +27249,9 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="117" t="str">
+      <c r="M15" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D15="ON","1D",D15),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f5#0000</v>
+        <v>obj_001ca#0001</v>
       </c>
       <c r="N15" s="75"/>
       <c r="O15" s="79"/>
@@ -27266,14 +27274,14 @@
       <c r="D16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M16,F16,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27288,9 +27296,9 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="117" t="str">
+      <c r="M16" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D16="ON","1D",D16),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0021a#0000</v>
+        <v>obj_00219#0001</v>
       </c>
       <c r="N16" s="75"/>
       <c r="O16" s="79"/>
@@ -27313,14 +27321,14 @@
       <c r="D17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M17,F17,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27338,9 +27346,9 @@
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="38"/>
-      <c r="M17" s="117" t="str">
+      <c r="M17" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D17="ON","1D",D17),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020e#0000</v>
+        <v>obj_001e3#0001</v>
       </c>
       <c r="N17" s="75"/>
       <c r="O17" s="79"/>
@@ -27363,14 +27371,14 @@
       <c r="D18" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="E18" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M18,F18,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27385,9 +27393,9 @@
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="117" t="str">
+      <c r="M18" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D18="ON","1D",D18),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00203#0000</v>
+        <v>obj_001e5#0001</v>
       </c>
       <c r="N18" s="75"/>
       <c r="O18" s="79"/>
@@ -27410,14 +27418,14 @@
       <c r="D19" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M19,F19,Trigger)</f>
         <v>42130</v>
       </c>
@@ -27432,9 +27440,9 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="117" t="str">
+      <c r="M19" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D19="ON","1D",D19),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00205#0000</v>
+        <v>obj_001cd#0001</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="79"/>
@@ -27457,18 +27465,18 @@
       <c r="D20" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M20,F20,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H20" s="120">
+      <c r="H20" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M20,G20,Trigger)</f>
         <v>42496</v>
       </c>
@@ -27481,10 +27489,10 @@
         <v>HKDOIS1YD=</v>
       </c>
       <c r="K20" s="51"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="117" t="str">
+      <c r="L20" s="114"/>
+      <c r="M20" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D20="ON","1D",D20),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00210#0000</v>
+        <v>obj_00215#0001</v>
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="79"/>
@@ -27507,18 +27515,18 @@
       <c r="D21" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M21,F21,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H21" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M21,G21,Trigger)</f>
         <v>42681</v>
       </c>
@@ -27531,10 +27539,10 @@
         <v>HKDOIS18MD=</v>
       </c>
       <c r="K21" s="51"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="117" t="str">
+      <c r="L21" s="114"/>
+      <c r="M21" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D21="ON","1D",D21),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020f#0000</v>
+        <v>obj_001fb#0001</v>
       </c>
       <c r="N21" s="75"/>
       <c r="O21" s="79"/>
@@ -27557,18 +27565,18 @@
       <c r="D22" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M22,F22,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H22" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M22,G22,Trigger)</f>
         <v>42863</v>
       </c>
@@ -27581,10 +27589,10 @@
         <v>HKDOIS2YD=</v>
       </c>
       <c r="K22" s="51"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117" t="str">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D22="ON","1D",D22),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00213#0000</v>
+        <v>obj_001d2#0001</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="79"/>
@@ -27607,18 +27615,18 @@
       <c r="D23" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
         <v>43227</v>
       </c>
@@ -27631,10 +27639,10 @@
         <v>HKDOIS3YD=</v>
       </c>
       <c r="K23" s="51"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117" t="str">
+      <c r="L23" s="114"/>
+      <c r="M23" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D23="ON","1D",D23),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ed#0000</v>
+        <v>obj_00207#0001</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -27657,18 +27665,18 @@
       <c r="D24" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
         <v>43591</v>
       </c>
@@ -27681,10 +27689,10 @@
         <v>HKDOIS4YD=</v>
       </c>
       <c r="K24" s="51"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117" t="str">
+      <c r="L24" s="114"/>
+      <c r="M24" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D24="ON","1D",D24),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00202#0000</v>
+        <v>obj_001f7#0001</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -27707,18 +27715,18 @@
       <c r="D25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
         <v>43957</v>
       </c>
@@ -27731,10 +27739,10 @@
         <v>HKDOIS5YD=</v>
       </c>
       <c r="K25" s="51"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="117" t="str">
+      <c r="L25" s="114"/>
+      <c r="M25" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D25="ON","1D",D25),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ea#0000</v>
+        <v>obj_0020a#0001</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -27757,18 +27765,18 @@
       <c r="D26" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="120">
+      <c r="F26" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
         <v>44687</v>
       </c>
@@ -27781,10 +27789,10 @@
         <v>HKDOIS7YD=</v>
       </c>
       <c r="K26" s="51"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117" t="str">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D26="ON","1D",D26),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00216#0000</v>
+        <v>obj_001f8#0001</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -27807,18 +27815,18 @@
       <c r="D27" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
         <v>45783</v>
       </c>
@@ -27831,10 +27839,10 @@
         <v>HKDOIS10YD=</v>
       </c>
       <c r="K27" s="51"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117" t="str">
+      <c r="L27" s="114"/>
+      <c r="M27" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D27="ON","1D",D27),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00217#0000</v>
+        <v>obj_00208#0001</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -27857,18 +27865,18 @@
       <c r="D28" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
         <v>46513</v>
       </c>
@@ -27881,10 +27889,10 @@
         <v>HKDOIS12YD=</v>
       </c>
       <c r="K28" s="51"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117" t="str">
+      <c r="L28" s="114"/>
+      <c r="M28" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D28="ON","1D",D28),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00215#0000</v>
+        <v>obj_001e1#0001</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -27907,18 +27915,18 @@
       <c r="D29" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="121">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G29" s="123">
+      <c r="G29" s="121">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="121">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
         <v>47609</v>
       </c>
@@ -27926,15 +27934,15 @@
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J29" s="125" t="str">
+      <c r="J29" s="123" t="str">
         <f>Contribution!U29</f>
         <v>HKDOIS15YD=</v>
       </c>
-      <c r="K29" s="125"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="126" t="str">
+      <c r="K29" s="123"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="124" t="str">
         <f>_xll.qlSwapIndex(,"Honix",IF(D29="ON","1D",D29),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020c#0000</v>
+        <v>obj_001f1#0001</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -28013,7 +28021,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="131"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -28069,7 +28077,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="131"/>
+      <c r="G34" s="129"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -28125,7 +28133,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="131"/>
+      <c r="G36" s="129"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -28181,7 +28189,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="131"/>
+      <c r="G38" s="129"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -28237,7 +28245,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="131"/>
+      <c r="G40" s="129"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -28293,7 +28301,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="131"/>
+      <c r="G42" s="129"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -28349,7 +28357,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="131"/>
+      <c r="G44" s="129"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -28405,7 +28413,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="131"/>
+      <c r="G46" s="129"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -28461,7 +28469,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="131"/>
+      <c r="G48" s="129"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -31137,7 +31145,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="26"/>
       <c r="F12" s="45"/>
-      <c r="G12" s="120"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="45"/>
       <c r="I12" s="44"/>
       <c r="J12" s="35"/>
@@ -31165,7 +31173,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="26"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="120"/>
+      <c r="G13" s="118"/>
       <c r="H13" s="45"/>
       <c r="I13" s="44"/>
       <c r="J13" s="35"/>
@@ -31193,7 +31201,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="26"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="120"/>
+      <c r="G14" s="118"/>
       <c r="H14" s="45"/>
       <c r="I14" s="44"/>
       <c r="J14" s="35"/>
@@ -31221,7 +31229,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="26"/>
       <c r="F15" s="45"/>
-      <c r="G15" s="120"/>
+      <c r="G15" s="118"/>
       <c r="H15" s="45"/>
       <c r="I15" s="44"/>
       <c r="J15" s="35"/>
@@ -31249,7 +31257,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="26"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="120"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="45"/>
       <c r="I16" s="44"/>
       <c r="J16" s="35"/>
@@ -31277,7 +31285,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="26"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="120"/>
+      <c r="G17" s="118"/>
       <c r="H17" s="45"/>
       <c r="I17" s="44"/>
       <c r="J17" s="35"/>
@@ -31305,7 +31313,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="26"/>
       <c r="F18" s="45"/>
-      <c r="G18" s="120"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="45"/>
       <c r="I18" s="44"/>
       <c r="J18" s="35"/>
@@ -31333,7 +31341,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="26"/>
       <c r="F19" s="45"/>
-      <c r="G19" s="120"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="45"/>
       <c r="I19" s="44"/>
       <c r="J19" s="35"/>
@@ -31360,13 +31368,13 @@
       <c r="C20" s="38"/>
       <c r="D20" s="103"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
       <c r="I20" s="96"/>
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
-      <c r="L20" s="116"/>
+      <c r="L20" s="114"/>
       <c r="M20" s="79"/>
       <c r="N20" s="79"/>
       <c r="O20" s="79"/>
@@ -31388,13 +31396,13 @@
       <c r="C21" s="38"/>
       <c r="D21" s="104"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="116"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="114"/>
       <c r="M21" s="76" t="s">
         <v>38</v>
       </c>
@@ -31449,10 +31457,10 @@
         <v>HKDSTD2Y=</v>
       </c>
       <c r="K22" s="49"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117" t="str">
+      <c r="L22" s="114"/>
+      <c r="M22" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D22,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001cc#0000</v>
+        <v>obj_001dc#0001</v>
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="77" t="s">
@@ -31481,18 +31489,18 @@
       <c r="D23" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M23,F23,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M23,G23,Trigger)</f>
         <v>43227</v>
       </c>
@@ -31505,10 +31513,10 @@
         <v>HKDSTD3Y=</v>
       </c>
       <c r="K23" s="51"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117" t="str">
+      <c r="L23" s="114"/>
+      <c r="M23" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D23,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f8#0000</v>
+        <v>obj_001f4#0001</v>
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="79"/>
@@ -31531,18 +31539,18 @@
       <c r="D24" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
         <v>43591</v>
       </c>
@@ -31555,10 +31563,10 @@
         <v>HKDSTD4Y=</v>
       </c>
       <c r="K24" s="51"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="117" t="str">
+      <c r="L24" s="114"/>
+      <c r="M24" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001f4#0000</v>
+        <v>obj_00218#0001</v>
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="79"/>
@@ -31581,18 +31589,18 @@
       <c r="D25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
         <v>43957</v>
       </c>
@@ -31605,10 +31613,10 @@
         <v>HKDSTD5Y=</v>
       </c>
       <c r="K25" s="51"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="117" t="str">
+      <c r="L25" s="114"/>
+      <c r="M25" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001d8#0000</v>
+        <v>obj_001fc#0001</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="79"/>
@@ -31631,18 +31639,18 @@
       <c r="D26" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="120">
+      <c r="F26" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
         <v>44687</v>
       </c>
@@ -31655,10 +31663,10 @@
         <v>HKDSTD7Y=</v>
       </c>
       <c r="K26" s="51"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117" t="str">
+      <c r="L26" s="114"/>
+      <c r="M26" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001ff#0000</v>
+        <v>obj_001cc#0001</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="79"/>
@@ -31681,18 +31689,18 @@
       <c r="D27" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
         <v>45783</v>
       </c>
@@ -31705,10 +31713,10 @@
         <v>HKDSTD10Y=</v>
       </c>
       <c r="K27" s="51"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117" t="str">
+      <c r="L27" s="114"/>
+      <c r="M27" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0020a#0000</v>
+        <v>obj_0020b#0001</v>
       </c>
       <c r="N27" s="75"/>
       <c r="O27" s="79"/>
@@ -31731,18 +31739,18 @@
       <c r="D28" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="118">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="118">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="118">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
         <v>46513</v>
       </c>
@@ -31755,10 +31763,10 @@
         <v>HKDSTD12Y=</v>
       </c>
       <c r="K28" s="51"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117" t="str">
+      <c r="L28" s="114"/>
+      <c r="M28" s="115" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001e3#0000</v>
+        <v>obj_00210#0001</v>
       </c>
       <c r="N28" s="75"/>
       <c r="O28" s="79"/>
@@ -31781,34 +31789,34 @@
       <c r="D29" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="121">
         <f t="shared" si="0"/>
         <v>42129</v>
       </c>
-      <c r="G29" s="123">
+      <c r="G29" s="121">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
         <v>42130</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="121">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
         <v>47609</v>
       </c>
-      <c r="I29" s="124">
+      <c r="I29" s="122">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,AllTriggers)</f>
         <v>2.1700000000074708E-2</v>
       </c>
-      <c r="J29" s="125" t="str">
+      <c r="J29" s="123" t="str">
         <f>Contribution!Y29</f>
         <v>HKDSTD15Y=</v>
       </c>
-      <c r="K29" s="125"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="126" t="str">
+      <c r="K29" s="123"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="124" t="str">
         <f>_xll.qlSwapIndex(,"Hibor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,YieldCurve,,Trigger)</f>
-        <v>obj_001fa#0000</v>
+        <v>obj_001cb#0001</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="79"/>
@@ -31862,7 +31870,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="127"/>
+      <c r="J31" s="125"/>
       <c r="K31" s="5"/>
       <c r="L31" s="38"/>
       <c r="M31" s="79"/>
@@ -31890,7 +31898,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="127"/>
+      <c r="J32" s="125"/>
       <c r="K32" s="5"/>
       <c r="L32" s="38"/>
       <c r="M32" s="79"/>
@@ -31918,7 +31926,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="127"/>
+      <c r="J33" s="125"/>
       <c r="K33" s="5"/>
       <c r="L33" s="38"/>
       <c r="M33" s="79"/>
@@ -31946,8 +31954,8 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="130"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="128"/>
       <c r="L34" s="38"/>
       <c r="M34" s="79"/>
       <c r="N34" s="75"/>
@@ -31974,8 +31982,8 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="130"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="128"/>
       <c r="L35" s="38"/>
       <c r="M35" s="79"/>
       <c r="N35" s="75"/>
@@ -32002,8 +32010,8 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="130"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="128"/>
       <c r="L36" s="38"/>
       <c r="M36" s="79"/>
       <c r="N36" s="75"/>
@@ -32030,8 +32038,8 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="130"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="128"/>
       <c r="L37" s="38"/>
       <c r="M37" s="79"/>
       <c r="N37" s="79"/>
@@ -32058,8 +32066,8 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="130"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="128"/>
       <c r="L38" s="38"/>
       <c r="M38" s="79"/>
       <c r="N38" s="79"/>
@@ -32087,7 +32095,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="130"/>
+      <c r="K39" s="128"/>
       <c r="L39" s="79"/>
       <c r="M39" s="79"/>
       <c r="N39" s="79"/>
@@ -32115,7 +32123,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="130"/>
+      <c r="K40" s="128"/>
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
       <c r="N40" s="79"/>
@@ -32143,7 +32151,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="130"/>
+      <c r="K41" s="128"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
